--- a/Analyze/results.xlsx
+++ b/Analyze/results.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chuan\OneDrive - Hanoi University of Science and Technology\CS\Opt\Opt-project\2D-bin-packing-problem_Optimize\Analyze\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C80E746E-BF74-46E1-9B29-21D7B6A08151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BBAD0D5-7D4A-47C1-9450-B90C985765F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1946" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1830" uniqueCount="394">
   <si>
     <t>Test</t>
   </si>
@@ -1204,6 +1204,9 @@
   </si>
   <si>
     <t>CP</t>
+  </si>
+  <si>
+    <t>MIP</t>
   </si>
 </sst>
 </file>
@@ -1445,6 +1448,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1452,6 +1458,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1466,15 +1481,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1484,22 +1490,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1781,7 +1776,7 @@
   <dimension ref="A1:R165"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection sqref="A1:R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1807,105 +1802,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>386</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="14" t="s">
+      <c r="C3" s="15"/>
+      <c r="D3" s="11" t="s">
         <v>391</v>
       </c>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="14" t="s">
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="11" t="s">
         <v>387</v>
       </c>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="16"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="13"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" s="18"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="9" t="s">
+      <c r="A4" s="19"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="11" t="s">
+        <v>393</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="11" t="s">
         <v>392</v>
       </c>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9" t="s">
+      <c r="H4" s="12"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="10" t="s">
         <v>388</v>
       </c>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9" t="s">
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10" t="s">
         <v>389</v>
       </c>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9" t="s">
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10" t="s">
         <v>390</v>
       </c>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="9"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5" s="19"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
@@ -2432,7 +2429,7 @@
         <v>508</v>
       </c>
       <c r="I14" s="2">
-        <v>170.09884715080261</v>
+        <v>102.58864402771</v>
       </c>
       <c r="J14" s="2">
         <v>4</v>
@@ -2488,7 +2485,7 @@
         <v>626</v>
       </c>
       <c r="I15" s="2">
-        <v>300.58174085617071</v>
+        <v>283.29500865936279</v>
       </c>
       <c r="J15" s="2">
         <v>4</v>
@@ -2817,14 +2814,14 @@
       <c r="F21" s="2">
         <v>300.0817699432373</v>
       </c>
-      <c r="G21" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="H21" s="20" t="s">
-        <v>385</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>385</v>
+      <c r="G21" s="2">
+        <v>7</v>
+      </c>
+      <c r="H21" s="5">
+        <v>1582</v>
+      </c>
+      <c r="I21" s="2">
+        <v>300.25131916999823</v>
       </c>
       <c r="J21" s="2">
         <v>8</v>
@@ -2873,14 +2870,14 @@
       <c r="F22" s="2">
         <v>300.09733200073242</v>
       </c>
-      <c r="G22" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="H22" s="20" t="s">
-        <v>385</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>385</v>
+      <c r="G22" s="2">
+        <v>8</v>
+      </c>
+      <c r="H22" s="5">
+        <v>2198</v>
+      </c>
+      <c r="I22" s="2">
+        <v>300.86941862106318</v>
       </c>
       <c r="J22" s="2">
         <v>10</v>
@@ -2923,20 +2920,20 @@
       <c r="D23" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="E23" s="20" t="s">
+      <c r="E23" s="7" t="s">
         <v>385</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="G23" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="H23" s="20" t="s">
-        <v>385</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>385</v>
+      <c r="G23" s="2">
+        <v>6</v>
+      </c>
+      <c r="H23" s="5">
+        <v>1225</v>
+      </c>
+      <c r="I23" s="2">
+        <v>300.31922650337219</v>
       </c>
       <c r="J23" s="2">
         <v>7</v>
@@ -2979,20 +2976,20 @@
       <c r="D24" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="E24" s="20" t="s">
+      <c r="E24" s="7" t="s">
         <v>385</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="G24" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="H24" s="20" t="s">
-        <v>385</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>385</v>
+      <c r="G24" s="2">
+        <v>6</v>
+      </c>
+      <c r="H24" s="5">
+        <v>1500</v>
+      </c>
+      <c r="I24" s="2">
+        <v>300.31552886962891</v>
       </c>
       <c r="J24" s="2">
         <v>6</v>
@@ -3035,25 +3032,25 @@
       <c r="D25" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="E25" s="20" t="s">
+      <c r="E25" s="7" t="s">
         <v>385</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="G25" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="H25" s="20" t="s">
-        <v>385</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>385</v>
+      <c r="G25" s="2">
+        <v>10</v>
+      </c>
+      <c r="H25" s="5">
+        <v>2138</v>
+      </c>
+      <c r="I25" s="2">
+        <v>300.49020719528198</v>
       </c>
       <c r="J25" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="K25" s="20" t="s">
+      <c r="K25" s="7" t="s">
         <v>385</v>
       </c>
       <c r="L25" s="2" t="s">
@@ -3097,14 +3094,14 @@
       <c r="F26" s="2">
         <v>300.18653392791748</v>
       </c>
-      <c r="G26" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="H26" s="20" t="s">
-        <v>385</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>385</v>
+      <c r="G26" s="2">
+        <v>6</v>
+      </c>
+      <c r="H26" s="5">
+        <v>1768</v>
+      </c>
+      <c r="I26" s="2">
+        <v>300.37115812301641</v>
       </c>
       <c r="J26" s="2">
         <v>6</v>
@@ -3153,14 +3150,14 @@
       <c r="F27" s="2">
         <v>298.65763282775879</v>
       </c>
-      <c r="G27" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="H27" s="20" t="s">
-        <v>385</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>385</v>
+      <c r="G27" s="2">
+        <v>7</v>
+      </c>
+      <c r="H27" s="5">
+        <v>1495</v>
+      </c>
+      <c r="I27" s="2">
+        <v>300.42995095252991</v>
       </c>
       <c r="J27" s="2">
         <v>8</v>
@@ -3209,14 +3206,14 @@
       <c r="F28" s="2">
         <v>299.46007204055792</v>
       </c>
-      <c r="G28" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="H28" s="20" t="s">
-        <v>385</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>385</v>
+      <c r="G28" s="2">
+        <v>8</v>
+      </c>
+      <c r="H28" s="5">
+        <v>1349</v>
+      </c>
+      <c r="I28" s="2">
+        <v>300.7887225151062</v>
       </c>
       <c r="J28" s="2">
         <v>8</v>
@@ -3259,25 +3256,25 @@
       <c r="D29" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="E29" s="20" t="s">
+      <c r="E29" s="7" t="s">
         <v>385</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="G29" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="H29" s="20" t="s">
-        <v>385</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>385</v>
+      <c r="G29" s="2">
+        <v>7</v>
+      </c>
+      <c r="H29" s="5">
+        <v>1740</v>
+      </c>
+      <c r="I29" s="2">
+        <v>300.46200394630432</v>
       </c>
       <c r="J29" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="K29" s="20" t="s">
+      <c r="K29" s="7" t="s">
         <v>385</v>
       </c>
       <c r="L29" s="2" t="s">
@@ -3315,25 +3312,25 @@
       <c r="D30" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="E30" s="20" t="s">
+      <c r="E30" s="7" t="s">
         <v>385</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="G30" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="H30" s="20" t="s">
-        <v>385</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>385</v>
+      <c r="G30" s="2">
+        <v>12</v>
+      </c>
+      <c r="H30" s="5">
+        <v>2496</v>
+      </c>
+      <c r="I30" s="2">
+        <v>300.48914456367493</v>
       </c>
       <c r="J30" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="K30" s="20" t="s">
+      <c r="K30" s="7" t="s">
         <v>385</v>
       </c>
       <c r="L30" s="2" t="s">
@@ -3371,25 +3368,25 @@
       <c r="D31" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="E31" s="20" t="s">
+      <c r="E31" s="7" t="s">
         <v>385</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="G31" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="H31" s="20" t="s">
-        <v>385</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>385</v>
+      <c r="G31" s="2">
+        <v>9</v>
+      </c>
+      <c r="H31" s="5">
+        <v>1523</v>
+      </c>
+      <c r="I31" s="2">
+        <v>301.1055862903595</v>
       </c>
       <c r="J31" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="K31" s="20" t="s">
+      <c r="K31" s="7" t="s">
         <v>385</v>
       </c>
       <c r="L31" s="2" t="s">
@@ -3427,25 +3424,25 @@
       <c r="D32" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="E32" s="20" t="s">
+      <c r="E32" s="7" t="s">
         <v>385</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="G32" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="H32" s="20" t="s">
-        <v>385</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>385</v>
+      <c r="G32" s="2">
+        <v>9</v>
+      </c>
+      <c r="H32" s="5">
+        <v>1727</v>
+      </c>
+      <c r="I32" s="2">
+        <v>300.55943012237549</v>
       </c>
       <c r="J32" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="K32" s="20" t="s">
+      <c r="K32" s="7" t="s">
         <v>385</v>
       </c>
       <c r="L32" s="2" t="s">
@@ -3483,25 +3480,25 @@
       <c r="D33" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="E33" s="20" t="s">
+      <c r="E33" s="7" t="s">
         <v>385</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="G33" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="H33" s="20" t="s">
-        <v>385</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>385</v>
+      <c r="G33" s="2">
+        <v>11</v>
+      </c>
+      <c r="H33" s="5">
+        <v>2194</v>
+      </c>
+      <c r="I33" s="2">
+        <v>300.6149115562439</v>
       </c>
       <c r="J33" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="K33" s="20" t="s">
+      <c r="K33" s="7" t="s">
         <v>385</v>
       </c>
       <c r="L33" s="2" t="s">
@@ -3539,25 +3536,25 @@
       <c r="D34" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="E34" s="20" t="s">
+      <c r="E34" s="7" t="s">
         <v>385</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="G34" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="H34" s="20" t="s">
-        <v>385</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>385</v>
+      <c r="G34" s="2">
+        <v>8</v>
+      </c>
+      <c r="H34" s="5">
+        <v>1858</v>
+      </c>
+      <c r="I34" s="2">
+        <v>300.81887769699102</v>
       </c>
       <c r="J34" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="K34" s="20" t="s">
+      <c r="K34" s="7" t="s">
         <v>385</v>
       </c>
       <c r="L34" s="2" t="s">
@@ -3595,25 +3592,25 @@
       <c r="D35" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="E35" s="20" t="s">
+      <c r="E35" s="7" t="s">
         <v>385</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="G35" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="H35" s="20" t="s">
-        <v>385</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>385</v>
+      <c r="G35" s="2">
+        <v>10</v>
+      </c>
+      <c r="H35" s="5">
+        <v>2221</v>
+      </c>
+      <c r="I35" s="2">
+        <v>300.73515510559082</v>
       </c>
       <c r="J35" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="K35" s="20" t="s">
+      <c r="K35" s="7" t="s">
         <v>385</v>
       </c>
       <c r="L35" s="2" t="s">
@@ -3651,25 +3648,25 @@
       <c r="D36" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="E36" s="20" t="s">
+      <c r="E36" s="7" t="s">
         <v>385</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="G36" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="H36" s="20" t="s">
-        <v>385</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>385</v>
+      <c r="G36" s="2">
+        <v>10</v>
+      </c>
+      <c r="H36" s="5">
+        <v>2012</v>
+      </c>
+      <c r="I36" s="2">
+        <v>300.70849823951721</v>
       </c>
       <c r="J36" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="K36" s="20" t="s">
+      <c r="K36" s="7" t="s">
         <v>385</v>
       </c>
       <c r="L36" s="2" t="s">
@@ -3707,25 +3704,25 @@
       <c r="D37" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="E37" s="20" t="s">
+      <c r="E37" s="7" t="s">
         <v>385</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="G37" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="H37" s="20" t="s">
-        <v>385</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>385</v>
+      <c r="G37" s="2">
+        <v>10</v>
+      </c>
+      <c r="H37" s="5">
+        <v>1541</v>
+      </c>
+      <c r="I37" s="2">
+        <v>300.76380324363708</v>
       </c>
       <c r="J37" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="K37" s="20" t="s">
+      <c r="K37" s="7" t="s">
         <v>385</v>
       </c>
       <c r="L37" s="2" t="s">
@@ -3763,25 +3760,25 @@
       <c r="D38" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="E38" s="20" t="s">
+      <c r="E38" s="7" t="s">
         <v>385</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="H38" s="20" t="s">
-        <v>385</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>385</v>
+      <c r="G38" s="2">
+        <v>10</v>
+      </c>
+      <c r="H38" s="5">
+        <v>1905</v>
+      </c>
+      <c r="I38" s="2">
+        <v>300.96345615386957</v>
       </c>
       <c r="J38" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="K38" s="20" t="s">
+      <c r="K38" s="7" t="s">
         <v>385</v>
       </c>
       <c r="L38" s="2" t="s">
@@ -3819,25 +3816,25 @@
       <c r="D39" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="E39" s="20" t="s">
+      <c r="E39" s="7" t="s">
         <v>385</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="G39" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="H39" s="20" t="s">
-        <v>385</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>385</v>
+      <c r="G39" s="2">
+        <v>11</v>
+      </c>
+      <c r="H39" s="5">
+        <v>2212</v>
+      </c>
+      <c r="I39" s="2">
+        <v>300.93196249008179</v>
       </c>
       <c r="J39" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="K39" s="20" t="s">
+      <c r="K39" s="7" t="s">
         <v>385</v>
       </c>
       <c r="L39" s="2" t="s">
@@ -3875,25 +3872,25 @@
       <c r="D40" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="E40" s="20" t="s">
+      <c r="E40" s="7" t="s">
         <v>385</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="G40" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="H40" s="20" t="s">
-        <v>385</v>
-      </c>
-      <c r="I40" s="2" t="s">
-        <v>385</v>
+      <c r="G40" s="2">
+        <v>10</v>
+      </c>
+      <c r="H40" s="5">
+        <v>1738</v>
+      </c>
+      <c r="I40" s="2">
+        <v>300.95544481277472</v>
       </c>
       <c r="J40" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="K40" s="20" t="s">
+      <c r="K40" s="7" t="s">
         <v>385</v>
       </c>
       <c r="L40" s="2" t="s">
@@ -3931,25 +3928,25 @@
       <c r="D41" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="E41" s="20" t="s">
+      <c r="E41" s="7" t="s">
         <v>385</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="G41" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="H41" s="20" t="s">
-        <v>385</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>385</v>
+      <c r="G41" s="2">
+        <v>14</v>
+      </c>
+      <c r="H41" s="5">
+        <v>3477</v>
+      </c>
+      <c r="I41" s="2">
+        <v>301.03408050537109</v>
       </c>
       <c r="J41" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="K41" s="20" t="s">
+      <c r="K41" s="7" t="s">
         <v>385</v>
       </c>
       <c r="L41" s="2" t="s">
@@ -3987,25 +3984,25 @@
       <c r="D42" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="E42" s="20" t="s">
+      <c r="E42" s="7" t="s">
         <v>385</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="G42" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="H42" s="20" t="s">
-        <v>385</v>
-      </c>
-      <c r="I42" s="2" t="s">
-        <v>385</v>
+      <c r="G42" s="2">
+        <v>11</v>
+      </c>
+      <c r="H42" s="5">
+        <v>1693</v>
+      </c>
+      <c r="I42" s="2">
+        <v>301.04369831085211</v>
       </c>
       <c r="J42" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="K42" s="20" t="s">
+      <c r="K42" s="7" t="s">
         <v>385</v>
       </c>
       <c r="L42" s="2" t="s">
@@ -4043,25 +4040,25 @@
       <c r="D43" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="E43" s="20" t="s">
+      <c r="E43" s="7" t="s">
         <v>385</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="G43" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="H43" s="20" t="s">
-        <v>385</v>
-      </c>
-      <c r="I43" s="2" t="s">
-        <v>385</v>
+      <c r="G43" s="2">
+        <v>10</v>
+      </c>
+      <c r="H43" s="5">
+        <v>2340</v>
+      </c>
+      <c r="I43" s="2">
+        <v>301.06571865081793</v>
       </c>
       <c r="J43" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="K43" s="20" t="s">
+      <c r="K43" s="7" t="s">
         <v>385</v>
       </c>
       <c r="L43" s="2" t="s">
@@ -4099,25 +4096,25 @@
       <c r="D44" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="E44" s="20" t="s">
+      <c r="E44" s="7" t="s">
         <v>385</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="G44" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="H44" s="20" t="s">
-        <v>385</v>
-      </c>
-      <c r="I44" s="2" t="s">
-        <v>385</v>
+      <c r="G44" s="2">
+        <v>11</v>
+      </c>
+      <c r="H44" s="5">
+        <v>1803</v>
+      </c>
+      <c r="I44" s="2">
+        <v>301.17428946495062</v>
       </c>
       <c r="J44" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="K44" s="20" t="s">
+      <c r="K44" s="7" t="s">
         <v>385</v>
       </c>
       <c r="L44" s="2" t="s">
@@ -4155,25 +4152,25 @@
       <c r="D45" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="E45" s="20" t="s">
+      <c r="E45" s="7" t="s">
         <v>385</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="G45" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="H45" s="20" t="s">
-        <v>385</v>
-      </c>
-      <c r="I45" s="2" t="s">
-        <v>385</v>
+      <c r="G45" s="2">
+        <v>11</v>
+      </c>
+      <c r="H45" s="5">
+        <v>2301</v>
+      </c>
+      <c r="I45" s="2">
+        <v>301.21761655807489</v>
       </c>
       <c r="J45" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="K45" s="20" t="s">
+      <c r="K45" s="7" t="s">
         <v>385</v>
       </c>
       <c r="L45" s="2" t="s">
@@ -4211,25 +4208,25 @@
       <c r="D46" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="E46" s="20" t="s">
+      <c r="E46" s="7" t="s">
         <v>385</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="G46" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="H46" s="20" t="s">
-        <v>385</v>
-      </c>
-      <c r="I46" s="2" t="s">
-        <v>385</v>
+      <c r="G46" s="2">
+        <v>20</v>
+      </c>
+      <c r="H46" s="5">
+        <v>4342</v>
+      </c>
+      <c r="I46" s="2">
+        <v>311.25898432731628</v>
       </c>
       <c r="J46" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="K46" s="20" t="s">
+      <c r="K46" s="7" t="s">
         <v>385</v>
       </c>
       <c r="L46" s="2" t="s">
@@ -4267,25 +4264,25 @@
       <c r="D47" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="E47" s="20" t="s">
+      <c r="E47" s="7" t="s">
         <v>385</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="G47" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="H47" s="20" t="s">
-        <v>385</v>
-      </c>
-      <c r="I47" s="2" t="s">
-        <v>385</v>
+      <c r="G47" s="2">
+        <v>35</v>
+      </c>
+      <c r="H47" s="5">
+        <v>4420</v>
+      </c>
+      <c r="I47" s="2">
+        <v>316.9155547618866</v>
       </c>
       <c r="J47" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="K47" s="20" t="s">
+      <c r="K47" s="7" t="s">
         <v>385</v>
       </c>
       <c r="L47" s="2" t="s">
@@ -4323,25 +4320,25 @@
       <c r="D48" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="E48" s="20" t="s">
+      <c r="E48" s="7" t="s">
         <v>385</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="G48" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="H48" s="20" t="s">
-        <v>385</v>
-      </c>
-      <c r="I48" s="2" t="s">
-        <v>385</v>
+      <c r="G48" s="2">
+        <v>28</v>
+      </c>
+      <c r="H48" s="5">
+        <v>5417</v>
+      </c>
+      <c r="I48" s="2">
+        <v>311.91908073425287</v>
       </c>
       <c r="J48" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="K48" s="20" t="s">
+      <c r="K48" s="7" t="s">
         <v>385</v>
       </c>
       <c r="L48" s="2" t="s">
@@ -4379,25 +4376,25 @@
       <c r="D49" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="E49" s="20" t="s">
+      <c r="E49" s="7" t="s">
         <v>385</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="G49" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="H49" s="20" t="s">
-        <v>385</v>
-      </c>
-      <c r="I49" s="2" t="s">
-        <v>385</v>
+      <c r="G49" s="2">
+        <v>29</v>
+      </c>
+      <c r="H49" s="5">
+        <v>7155</v>
+      </c>
+      <c r="I49" s="2">
+        <v>309.61183571815491</v>
       </c>
       <c r="J49" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="K49" s="20" t="s">
+      <c r="K49" s="7" t="s">
         <v>385</v>
       </c>
       <c r="L49" s="2" t="s">
@@ -4435,25 +4432,25 @@
       <c r="D50" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="E50" s="20" t="s">
+      <c r="E50" s="7" t="s">
         <v>385</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="G50" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="H50" s="20" t="s">
-        <v>385</v>
-      </c>
-      <c r="I50" s="2" t="s">
-        <v>385</v>
+      <c r="G50" s="2">
+        <v>25</v>
+      </c>
+      <c r="H50" s="5">
+        <v>5613</v>
+      </c>
+      <c r="I50" s="2">
+        <v>308.78597259521479</v>
       </c>
       <c r="J50" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="K50" s="20" t="s">
+      <c r="K50" s="7" t="s">
         <v>385</v>
       </c>
       <c r="L50" s="2" t="s">
@@ -4491,25 +4488,25 @@
       <c r="D51" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="E51" s="20" t="s">
+      <c r="E51" s="7" t="s">
         <v>385</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="G51" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="H51" s="20" t="s">
-        <v>385</v>
-      </c>
-      <c r="I51" s="2" t="s">
-        <v>385</v>
+      <c r="G51" s="2">
+        <v>21</v>
+      </c>
+      <c r="H51" s="5">
+        <v>3423</v>
+      </c>
+      <c r="I51" s="2">
+        <v>316.18781352043152</v>
       </c>
       <c r="J51" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="K51" s="20" t="s">
+      <c r="K51" s="7" t="s">
         <v>385</v>
       </c>
       <c r="L51" s="2" t="s">
@@ -4547,25 +4544,25 @@
       <c r="D52" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="E52" s="20" t="s">
+      <c r="E52" s="7" t="s">
         <v>385</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="G52" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="H52" s="20" t="s">
-        <v>385</v>
-      </c>
-      <c r="I52" s="2" t="s">
-        <v>385</v>
+      <c r="G52" s="2">
+        <v>43</v>
+      </c>
+      <c r="H52" s="5">
+        <v>6232</v>
+      </c>
+      <c r="I52" s="2">
+        <v>319.65333199501038</v>
       </c>
       <c r="J52" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="K52" s="20" t="s">
+      <c r="K52" s="7" t="s">
         <v>385</v>
       </c>
       <c r="L52" s="2" t="s">
@@ -4603,25 +4600,25 @@
       <c r="D53" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="E53" s="20" t="s">
+      <c r="E53" s="7" t="s">
         <v>385</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="G53" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="H53" s="20" t="s">
-        <v>385</v>
-      </c>
-      <c r="I53" s="2" t="s">
-        <v>385</v>
+      <c r="G53" s="2">
+        <v>19</v>
+      </c>
+      <c r="H53" s="5">
+        <v>3203</v>
+      </c>
+      <c r="I53" s="2">
+        <v>317.6867094039917</v>
       </c>
       <c r="J53" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="K53" s="20" t="s">
+      <c r="K53" s="7" t="s">
         <v>385</v>
       </c>
       <c r="L53" s="2" t="s">
@@ -4659,25 +4656,25 @@
       <c r="D54" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="E54" s="20" t="s">
+      <c r="E54" s="7" t="s">
         <v>385</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="G54" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="H54" s="20" t="s">
-        <v>385</v>
-      </c>
-      <c r="I54" s="2" t="s">
-        <v>385</v>
+      <c r="G54" s="2">
+        <v>24</v>
+      </c>
+      <c r="H54" s="5">
+        <v>5384</v>
+      </c>
+      <c r="I54" s="2">
+        <v>308.01221370697021</v>
       </c>
       <c r="J54" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="K54" s="20" t="s">
+      <c r="K54" s="7" t="s">
         <v>385</v>
       </c>
       <c r="L54" s="2" t="s">
@@ -4715,25 +4712,25 @@
       <c r="D55" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="E55" s="20" t="s">
+      <c r="E55" s="7" t="s">
         <v>385</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="G55" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="H55" s="20" t="s">
-        <v>385</v>
-      </c>
-      <c r="I55" s="2" t="s">
-        <v>385</v>
+      <c r="G55" s="2">
+        <v>44</v>
+      </c>
+      <c r="H55" s="5">
+        <v>5834</v>
+      </c>
+      <c r="I55" s="2">
+        <v>313.95156979560852</v>
       </c>
       <c r="J55" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="K55" s="20" t="s">
+      <c r="K55" s="7" t="s">
         <v>385</v>
       </c>
       <c r="L55" s="2" t="s">
@@ -4771,25 +4768,25 @@
       <c r="D56" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="E56" s="20" t="s">
+      <c r="E56" s="7" t="s">
         <v>385</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="G56" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="H56" s="20" t="s">
-        <v>385</v>
-      </c>
-      <c r="I56" s="2" t="s">
-        <v>385</v>
+      <c r="G56" s="2">
+        <v>25</v>
+      </c>
+      <c r="H56" s="5">
+        <v>4858</v>
+      </c>
+      <c r="I56" s="2">
+        <v>320.52644038200378</v>
       </c>
       <c r="J56" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="K56" s="20" t="s">
+      <c r="K56" s="7" t="s">
         <v>385</v>
       </c>
       <c r="L56" s="2" t="s">
@@ -4827,25 +4824,25 @@
       <c r="D57" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="E57" s="20" t="s">
+      <c r="E57" s="7" t="s">
         <v>385</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="G57" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="H57" s="20" t="s">
-        <v>385</v>
-      </c>
-      <c r="I57" s="2" t="s">
-        <v>385</v>
+      <c r="G57" s="2">
+        <v>42</v>
+      </c>
+      <c r="H57" s="5">
+        <v>5758</v>
+      </c>
+      <c r="I57" s="2">
+        <v>318.35414052009583</v>
       </c>
       <c r="J57" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="K57" s="20" t="s">
+      <c r="K57" s="7" t="s">
         <v>385</v>
       </c>
       <c r="L57" s="2" t="s">
@@ -4883,25 +4880,25 @@
       <c r="D58" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="E58" s="20" t="s">
+      <c r="E58" s="7" t="s">
         <v>385</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="G58" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="H58" s="20" t="s">
-        <v>385</v>
-      </c>
-      <c r="I58" s="2" t="s">
-        <v>385</v>
+      <c r="G58" s="2">
+        <v>53</v>
+      </c>
+      <c r="H58" s="5">
+        <v>6976</v>
+      </c>
+      <c r="I58" s="2">
+        <v>324.60341143608088</v>
       </c>
       <c r="J58" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="K58" s="20" t="s">
+      <c r="K58" s="7" t="s">
         <v>385</v>
       </c>
       <c r="L58" s="2" t="s">
@@ -4939,25 +4936,25 @@
       <c r="D59" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="E59" s="20" t="s">
+      <c r="E59" s="7" t="s">
         <v>385</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="G59" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="H59" s="20" t="s">
-        <v>385</v>
-      </c>
-      <c r="I59" s="2" t="s">
-        <v>385</v>
+      <c r="G59" s="2">
+        <v>39</v>
+      </c>
+      <c r="H59" s="5">
+        <v>8161</v>
+      </c>
+      <c r="I59" s="2">
+        <v>316.82008576393127</v>
       </c>
       <c r="J59" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="K59" s="20" t="s">
+      <c r="K59" s="7" t="s">
         <v>385</v>
       </c>
       <c r="L59" s="2" t="s">
@@ -4995,7 +4992,7 @@
       <c r="D60" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="E60" s="20" t="s">
+      <c r="E60" s="7" t="s">
         <v>385</v>
       </c>
       <c r="F60" s="2" t="s">
@@ -5004,7 +5001,7 @@
       <c r="G60" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="H60" s="20" t="s">
+      <c r="H60" s="7" t="s">
         <v>385</v>
       </c>
       <c r="I60" s="2" t="s">
@@ -5013,7 +5010,7 @@
       <c r="J60" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="K60" s="20" t="s">
+      <c r="K60" s="7" t="s">
         <v>385</v>
       </c>
       <c r="L60" s="2" t="s">
@@ -5051,7 +5048,7 @@
       <c r="D61" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="E61" s="20" t="s">
+      <c r="E61" s="7" t="s">
         <v>385</v>
       </c>
       <c r="F61" s="2" t="s">
@@ -5060,7 +5057,7 @@
       <c r="G61" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="H61" s="20" t="s">
+      <c r="H61" s="7" t="s">
         <v>385</v>
       </c>
       <c r="I61" s="2" t="s">
@@ -5069,7 +5066,7 @@
       <c r="J61" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="K61" s="20" t="s">
+      <c r="K61" s="7" t="s">
         <v>385</v>
       </c>
       <c r="L61" s="2" t="s">
@@ -5107,7 +5104,7 @@
       <c r="D62" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="E62" s="20" t="s">
+      <c r="E62" s="7" t="s">
         <v>385</v>
       </c>
       <c r="F62" s="2" t="s">
@@ -5116,7 +5113,7 @@
       <c r="G62" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="H62" s="20" t="s">
+      <c r="H62" s="7" t="s">
         <v>385</v>
       </c>
       <c r="I62" s="2" t="s">
@@ -5125,7 +5122,7 @@
       <c r="J62" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="K62" s="20" t="s">
+      <c r="K62" s="7" t="s">
         <v>385</v>
       </c>
       <c r="L62" s="2" t="s">
@@ -5163,7 +5160,7 @@
       <c r="D63" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="E63" s="20" t="s">
+      <c r="E63" s="7" t="s">
         <v>385</v>
       </c>
       <c r="F63" s="2" t="s">
@@ -5172,7 +5169,7 @@
       <c r="G63" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="H63" s="20" t="s">
+      <c r="H63" s="7" t="s">
         <v>385</v>
       </c>
       <c r="I63" s="2" t="s">
@@ -5181,7 +5178,7 @@
       <c r="J63" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="K63" s="20" t="s">
+      <c r="K63" s="7" t="s">
         <v>385</v>
       </c>
       <c r="L63" s="2" t="s">
@@ -5219,7 +5216,7 @@
       <c r="D64" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="E64" s="20" t="s">
+      <c r="E64" s="7" t="s">
         <v>385</v>
       </c>
       <c r="F64" s="2" t="s">
@@ -5228,7 +5225,7 @@
       <c r="G64" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="H64" s="20" t="s">
+      <c r="H64" s="7" t="s">
         <v>385</v>
       </c>
       <c r="I64" s="2" t="s">
@@ -5237,7 +5234,7 @@
       <c r="J64" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="K64" s="20" t="s">
+      <c r="K64" s="7" t="s">
         <v>385</v>
       </c>
       <c r="L64" s="2" t="s">
@@ -5275,7 +5272,7 @@
       <c r="D65" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="E65" s="20" t="s">
+      <c r="E65" s="7" t="s">
         <v>385</v>
       </c>
       <c r="F65" s="2" t="s">
@@ -5284,7 +5281,7 @@
       <c r="G65" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="H65" s="20" t="s">
+      <c r="H65" s="7" t="s">
         <v>385</v>
       </c>
       <c r="I65" s="2" t="s">
@@ -5293,7 +5290,7 @@
       <c r="J65" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="K65" s="20" t="s">
+      <c r="K65" s="7" t="s">
         <v>385</v>
       </c>
       <c r="L65" s="2" t="s">
@@ -5331,7 +5328,7 @@
       <c r="D66" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="E66" s="20" t="s">
+      <c r="E66" s="7" t="s">
         <v>385</v>
       </c>
       <c r="F66" s="2" t="s">
@@ -5340,7 +5337,7 @@
       <c r="G66" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="H66" s="20" t="s">
+      <c r="H66" s="7" t="s">
         <v>385</v>
       </c>
       <c r="I66" s="2" t="s">
@@ -5349,7 +5346,7 @@
       <c r="J66" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="K66" s="20" t="s">
+      <c r="K66" s="7" t="s">
         <v>385</v>
       </c>
       <c r="L66" s="2" t="s">
@@ -5387,7 +5384,7 @@
       <c r="D67" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="E67" s="20" t="s">
+      <c r="E67" s="7" t="s">
         <v>385</v>
       </c>
       <c r="F67" s="2" t="s">
@@ -5396,7 +5393,7 @@
       <c r="G67" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="H67" s="20" t="s">
+      <c r="H67" s="7" t="s">
         <v>385</v>
       </c>
       <c r="I67" s="2" t="s">
@@ -5405,7 +5402,7 @@
       <c r="J67" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="K67" s="20" t="s">
+      <c r="K67" s="7" t="s">
         <v>385</v>
       </c>
       <c r="L67" s="2" t="s">
@@ -5443,7 +5440,7 @@
       <c r="D68" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="E68" s="20" t="s">
+      <c r="E68" s="7" t="s">
         <v>385</v>
       </c>
       <c r="F68" s="2" t="s">
@@ -5452,7 +5449,7 @@
       <c r="G68" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="H68" s="20" t="s">
+      <c r="H68" s="7" t="s">
         <v>385</v>
       </c>
       <c r="I68" s="2" t="s">
@@ -5461,7 +5458,7 @@
       <c r="J68" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="K68" s="20" t="s">
+      <c r="K68" s="7" t="s">
         <v>385</v>
       </c>
       <c r="L68" s="2" t="s">
@@ -5499,7 +5496,7 @@
       <c r="D69" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="E69" s="20" t="s">
+      <c r="E69" s="7" t="s">
         <v>385</v>
       </c>
       <c r="F69" s="2" t="s">
@@ -5508,7 +5505,7 @@
       <c r="G69" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="H69" s="20" t="s">
+      <c r="H69" s="7" t="s">
         <v>385</v>
       </c>
       <c r="I69" s="2" t="s">
@@ -5517,7 +5514,7 @@
       <c r="J69" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="K69" s="20" t="s">
+      <c r="K69" s="7" t="s">
         <v>385</v>
       </c>
       <c r="L69" s="2" t="s">
@@ -5555,7 +5552,7 @@
       <c r="D70" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="E70" s="20" t="s">
+      <c r="E70" s="7" t="s">
         <v>385</v>
       </c>
       <c r="F70" s="2" t="s">
@@ -5564,7 +5561,7 @@
       <c r="G70" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="H70" s="20" t="s">
+      <c r="H70" s="7" t="s">
         <v>385</v>
       </c>
       <c r="I70" s="2" t="s">
@@ -5573,7 +5570,7 @@
       <c r="J70" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="K70" s="20" t="s">
+      <c r="K70" s="7" t="s">
         <v>385</v>
       </c>
       <c r="L70" s="2" t="s">
@@ -5611,7 +5608,7 @@
       <c r="D71" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="E71" s="20" t="s">
+      <c r="E71" s="7" t="s">
         <v>385</v>
       </c>
       <c r="F71" s="2" t="s">
@@ -5620,7 +5617,7 @@
       <c r="G71" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="H71" s="20" t="s">
+      <c r="H71" s="7" t="s">
         <v>385</v>
       </c>
       <c r="I71" s="2" t="s">
@@ -5629,7 +5626,7 @@
       <c r="J71" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="K71" s="20" t="s">
+      <c r="K71" s="7" t="s">
         <v>385</v>
       </c>
       <c r="L71" s="2" t="s">
@@ -5667,7 +5664,7 @@
       <c r="D72" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="E72" s="20" t="s">
+      <c r="E72" s="7" t="s">
         <v>385</v>
       </c>
       <c r="F72" s="2" t="s">
@@ -5676,7 +5673,7 @@
       <c r="G72" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="H72" s="20" t="s">
+      <c r="H72" s="7" t="s">
         <v>385</v>
       </c>
       <c r="I72" s="2" t="s">
@@ -5685,7 +5682,7 @@
       <c r="J72" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="K72" s="20" t="s">
+      <c r="K72" s="7" t="s">
         <v>385</v>
       </c>
       <c r="L72" s="2" t="s">
@@ -5723,7 +5720,7 @@
       <c r="D73" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="E73" s="20" t="s">
+      <c r="E73" s="7" t="s">
         <v>385</v>
       </c>
       <c r="F73" s="2" t="s">
@@ -5732,7 +5729,7 @@
       <c r="G73" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="H73" s="20" t="s">
+      <c r="H73" s="7" t="s">
         <v>385</v>
       </c>
       <c r="I73" s="2" t="s">
@@ -5741,7 +5738,7 @@
       <c r="J73" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="K73" s="20" t="s">
+      <c r="K73" s="7" t="s">
         <v>385</v>
       </c>
       <c r="L73" s="2" t="s">
@@ -5779,7 +5776,7 @@
       <c r="D74" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="E74" s="20" t="s">
+      <c r="E74" s="7" t="s">
         <v>385</v>
       </c>
       <c r="F74" s="2" t="s">
@@ -5788,7 +5785,7 @@
       <c r="G74" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="H74" s="20" t="s">
+      <c r="H74" s="7" t="s">
         <v>385</v>
       </c>
       <c r="I74" s="2" t="s">
@@ -5797,7 +5794,7 @@
       <c r="J74" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="K74" s="20" t="s">
+      <c r="K74" s="7" t="s">
         <v>385</v>
       </c>
       <c r="L74" s="2" t="s">
@@ -5835,7 +5832,7 @@
       <c r="D75" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="E75" s="20" t="s">
+      <c r="E75" s="7" t="s">
         <v>385</v>
       </c>
       <c r="F75" s="2" t="s">
@@ -5844,7 +5841,7 @@
       <c r="G75" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="H75" s="20" t="s">
+      <c r="H75" s="7" t="s">
         <v>385</v>
       </c>
       <c r="I75" s="2" t="s">
@@ -5853,7 +5850,7 @@
       <c r="J75" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="K75" s="20" t="s">
+      <c r="K75" s="7" t="s">
         <v>385</v>
       </c>
       <c r="L75" s="2" t="s">
@@ -5891,7 +5888,7 @@
       <c r="D76" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="E76" s="20" t="s">
+      <c r="E76" s="7" t="s">
         <v>385</v>
       </c>
       <c r="F76" s="2" t="s">
@@ -5900,7 +5897,7 @@
       <c r="G76" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="H76" s="20" t="s">
+      <c r="H76" s="7" t="s">
         <v>385</v>
       </c>
       <c r="I76" s="2" t="s">
@@ -5909,7 +5906,7 @@
       <c r="J76" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="K76" s="20" t="s">
+      <c r="K76" s="7" t="s">
         <v>385</v>
       </c>
       <c r="L76" s="2" t="s">
@@ -5947,7 +5944,7 @@
       <c r="D77" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="E77" s="20" t="s">
+      <c r="E77" s="7" t="s">
         <v>385</v>
       </c>
       <c r="F77" s="2" t="s">
@@ -5956,7 +5953,7 @@
       <c r="G77" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="H77" s="20" t="s">
+      <c r="H77" s="7" t="s">
         <v>385</v>
       </c>
       <c r="I77" s="2" t="s">
@@ -5965,7 +5962,7 @@
       <c r="J77" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="K77" s="20" t="s">
+      <c r="K77" s="7" t="s">
         <v>385</v>
       </c>
       <c r="L77" s="2" t="s">
@@ -6003,7 +6000,7 @@
       <c r="D78" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="E78" s="20" t="s">
+      <c r="E78" s="7" t="s">
         <v>385</v>
       </c>
       <c r="F78" s="2" t="s">
@@ -6012,7 +6009,7 @@
       <c r="G78" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="H78" s="20" t="s">
+      <c r="H78" s="7" t="s">
         <v>385</v>
       </c>
       <c r="I78" s="2" t="s">
@@ -6021,7 +6018,7 @@
       <c r="J78" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="K78" s="20" t="s">
+      <c r="K78" s="7" t="s">
         <v>385</v>
       </c>
       <c r="L78" s="2" t="s">
@@ -6059,7 +6056,7 @@
       <c r="D79" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="E79" s="20" t="s">
+      <c r="E79" s="7" t="s">
         <v>385</v>
       </c>
       <c r="F79" s="2" t="s">
@@ -6068,7 +6065,7 @@
       <c r="G79" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="H79" s="20" t="s">
+      <c r="H79" s="7" t="s">
         <v>385</v>
       </c>
       <c r="I79" s="2" t="s">
@@ -6077,7 +6074,7 @@
       <c r="J79" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="K79" s="20" t="s">
+      <c r="K79" s="7" t="s">
         <v>385</v>
       </c>
       <c r="L79" s="2" t="s">
@@ -6115,7 +6112,7 @@
       <c r="D80" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="E80" s="20" t="s">
+      <c r="E80" s="7" t="s">
         <v>385</v>
       </c>
       <c r="F80" s="2" t="s">
@@ -6124,7 +6121,7 @@
       <c r="G80" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="H80" s="20" t="s">
+      <c r="H80" s="7" t="s">
         <v>385</v>
       </c>
       <c r="I80" s="2" t="s">
@@ -6133,7 +6130,7 @@
       <c r="J80" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="K80" s="20" t="s">
+      <c r="K80" s="7" t="s">
         <v>385</v>
       </c>
       <c r="L80" s="2" t="s">
@@ -6171,7 +6168,7 @@
       <c r="D81" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="E81" s="20" t="s">
+      <c r="E81" s="7" t="s">
         <v>385</v>
       </c>
       <c r="F81" s="2" t="s">
@@ -6180,7 +6177,7 @@
       <c r="G81" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="H81" s="20" t="s">
+      <c r="H81" s="7" t="s">
         <v>385</v>
       </c>
       <c r="I81" s="2" t="s">
@@ -6189,7 +6186,7 @@
       <c r="J81" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="K81" s="20" t="s">
+      <c r="K81" s="7" t="s">
         <v>385</v>
       </c>
       <c r="L81" s="2" t="s">
@@ -6227,7 +6224,7 @@
       <c r="D82" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="E82" s="20" t="s">
+      <c r="E82" s="7" t="s">
         <v>385</v>
       </c>
       <c r="F82" s="2" t="s">
@@ -6236,7 +6233,7 @@
       <c r="G82" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="H82" s="20" t="s">
+      <c r="H82" s="7" t="s">
         <v>385</v>
       </c>
       <c r="I82" s="2" t="s">
@@ -6245,7 +6242,7 @@
       <c r="J82" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="K82" s="20" t="s">
+      <c r="K82" s="7" t="s">
         <v>385</v>
       </c>
       <c r="L82" s="2" t="s">
@@ -6283,7 +6280,7 @@
       <c r="D83" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="E83" s="20" t="s">
+      <c r="E83" s="7" t="s">
         <v>385</v>
       </c>
       <c r="F83" s="2" t="s">
@@ -6292,7 +6289,7 @@
       <c r="G83" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="H83" s="20" t="s">
+      <c r="H83" s="7" t="s">
         <v>385</v>
       </c>
       <c r="I83" s="2" t="s">
@@ -6301,7 +6298,7 @@
       <c r="J83" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="K83" s="20" t="s">
+      <c r="K83" s="7" t="s">
         <v>385</v>
       </c>
       <c r="L83" s="2" t="s">
@@ -6339,7 +6336,7 @@
       <c r="D84" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="E84" s="20" t="s">
+      <c r="E84" s="7" t="s">
         <v>385</v>
       </c>
       <c r="F84" s="2" t="s">
@@ -6348,7 +6345,7 @@
       <c r="G84" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="H84" s="20" t="s">
+      <c r="H84" s="7" t="s">
         <v>385</v>
       </c>
       <c r="I84" s="2" t="s">
@@ -6357,7 +6354,7 @@
       <c r="J84" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="K84" s="20" t="s">
+      <c r="K84" s="7" t="s">
         <v>385</v>
       </c>
       <c r="L84" s="2" t="s">
@@ -6395,7 +6392,7 @@
       <c r="D85" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="E85" s="20" t="s">
+      <c r="E85" s="7" t="s">
         <v>385</v>
       </c>
       <c r="F85" s="2" t="s">
@@ -6404,7 +6401,7 @@
       <c r="G85" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="H85" s="20" t="s">
+      <c r="H85" s="7" t="s">
         <v>385</v>
       </c>
       <c r="I85" s="2" t="s">
@@ -6413,7 +6410,7 @@
       <c r="J85" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="K85" s="20" t="s">
+      <c r="K85" s="7" t="s">
         <v>385</v>
       </c>
       <c r="L85" s="2" t="s">
@@ -6451,7 +6448,7 @@
       <c r="D86" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="E86" s="20" t="s">
+      <c r="E86" s="7" t="s">
         <v>385</v>
       </c>
       <c r="F86" s="2" t="s">
@@ -6460,7 +6457,7 @@
       <c r="G86" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="H86" s="20" t="s">
+      <c r="H86" s="7" t="s">
         <v>385</v>
       </c>
       <c r="I86" s="2" t="s">
@@ -6469,7 +6466,7 @@
       <c r="J86" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="K86" s="20" t="s">
+      <c r="K86" s="7" t="s">
         <v>385</v>
       </c>
       <c r="L86" s="2" t="s">
@@ -6507,7 +6504,7 @@
       <c r="D87" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="E87" s="20" t="s">
+      <c r="E87" s="7" t="s">
         <v>385</v>
       </c>
       <c r="F87" s="2" t="s">
@@ -6516,7 +6513,7 @@
       <c r="G87" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="H87" s="20" t="s">
+      <c r="H87" s="7" t="s">
         <v>385</v>
       </c>
       <c r="I87" s="2" t="s">
@@ -6525,7 +6522,7 @@
       <c r="J87" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="K87" s="20" t="s">
+      <c r="K87" s="7" t="s">
         <v>385</v>
       </c>
       <c r="L87" s="2" t="s">
@@ -6563,7 +6560,7 @@
       <c r="D88" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="E88" s="20" t="s">
+      <c r="E88" s="7" t="s">
         <v>385</v>
       </c>
       <c r="F88" s="2" t="s">
@@ -6572,7 +6569,7 @@
       <c r="G88" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="H88" s="20" t="s">
+      <c r="H88" s="7" t="s">
         <v>385</v>
       </c>
       <c r="I88" s="2" t="s">
@@ -6581,7 +6578,7 @@
       <c r="J88" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="K88" s="20" t="s">
+      <c r="K88" s="7" t="s">
         <v>385</v>
       </c>
       <c r="L88" s="2" t="s">
@@ -6619,7 +6616,7 @@
       <c r="D89" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="E89" s="20" t="s">
+      <c r="E89" s="7" t="s">
         <v>385</v>
       </c>
       <c r="F89" s="2" t="s">
@@ -6628,7 +6625,7 @@
       <c r="G89" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="H89" s="20" t="s">
+      <c r="H89" s="7" t="s">
         <v>385</v>
       </c>
       <c r="I89" s="2" t="s">
@@ -6637,7 +6634,7 @@
       <c r="J89" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="K89" s="20" t="s">
+      <c r="K89" s="7" t="s">
         <v>385</v>
       </c>
       <c r="L89" s="2" t="s">
@@ -6675,7 +6672,7 @@
       <c r="D90" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="E90" s="20" t="s">
+      <c r="E90" s="7" t="s">
         <v>385</v>
       </c>
       <c r="F90" s="2" t="s">
@@ -6684,7 +6681,7 @@
       <c r="G90" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="H90" s="20" t="s">
+      <c r="H90" s="7" t="s">
         <v>385</v>
       </c>
       <c r="I90" s="2" t="s">
@@ -6693,7 +6690,7 @@
       <c r="J90" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="K90" s="20" t="s">
+      <c r="K90" s="7" t="s">
         <v>385</v>
       </c>
       <c r="L90" s="2" t="s">
@@ -6731,7 +6728,7 @@
       <c r="D91" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="E91" s="20" t="s">
+      <c r="E91" s="7" t="s">
         <v>385</v>
       </c>
       <c r="F91" s="2" t="s">
@@ -6740,7 +6737,7 @@
       <c r="G91" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="H91" s="20" t="s">
+      <c r="H91" s="7" t="s">
         <v>385</v>
       </c>
       <c r="I91" s="2" t="s">
@@ -6749,7 +6746,7 @@
       <c r="J91" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="K91" s="20" t="s">
+      <c r="K91" s="7" t="s">
         <v>385</v>
       </c>
       <c r="L91" s="2" t="s">
@@ -6787,7 +6784,7 @@
       <c r="D92" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="E92" s="20" t="s">
+      <c r="E92" s="7" t="s">
         <v>385</v>
       </c>
       <c r="F92" s="2" t="s">
@@ -6796,7 +6793,7 @@
       <c r="G92" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="H92" s="20" t="s">
+      <c r="H92" s="7" t="s">
         <v>385</v>
       </c>
       <c r="I92" s="2" t="s">
@@ -6805,7 +6802,7 @@
       <c r="J92" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="K92" s="20" t="s">
+      <c r="K92" s="7" t="s">
         <v>385</v>
       </c>
       <c r="L92" s="2" t="s">
@@ -6843,7 +6840,7 @@
       <c r="D93" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="E93" s="20" t="s">
+      <c r="E93" s="7" t="s">
         <v>385</v>
       </c>
       <c r="F93" s="2" t="s">
@@ -6852,7 +6849,7 @@
       <c r="G93" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="H93" s="20" t="s">
+      <c r="H93" s="7" t="s">
         <v>385</v>
       </c>
       <c r="I93" s="2" t="s">
@@ -6861,7 +6858,7 @@
       <c r="J93" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="K93" s="20" t="s">
+      <c r="K93" s="7" t="s">
         <v>385</v>
       </c>
       <c r="L93" s="2" t="s">
@@ -6899,7 +6896,7 @@
       <c r="D94" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="E94" s="20" t="s">
+      <c r="E94" s="7" t="s">
         <v>385</v>
       </c>
       <c r="F94" s="2" t="s">
@@ -6908,7 +6905,7 @@
       <c r="G94" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="H94" s="20" t="s">
+      <c r="H94" s="7" t="s">
         <v>385</v>
       </c>
       <c r="I94" s="2" t="s">
@@ -6917,7 +6914,7 @@
       <c r="J94" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="K94" s="20" t="s">
+      <c r="K94" s="7" t="s">
         <v>385</v>
       </c>
       <c r="L94" s="2" t="s">
@@ -6955,7 +6952,7 @@
       <c r="D95" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="E95" s="20" t="s">
+      <c r="E95" s="7" t="s">
         <v>385</v>
       </c>
       <c r="F95" s="2" t="s">
@@ -6964,7 +6961,7 @@
       <c r="G95" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="H95" s="20" t="s">
+      <c r="H95" s="7" t="s">
         <v>385</v>
       </c>
       <c r="I95" s="2" t="s">
@@ -6973,7 +6970,7 @@
       <c r="J95" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="K95" s="20" t="s">
+      <c r="K95" s="7" t="s">
         <v>385</v>
       </c>
       <c r="L95" s="2" t="s">
@@ -7011,7 +7008,7 @@
       <c r="D96" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="E96" s="20" t="s">
+      <c r="E96" s="7" t="s">
         <v>385</v>
       </c>
       <c r="F96" s="2" t="s">
@@ -7020,7 +7017,7 @@
       <c r="G96" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="H96" s="20" t="s">
+      <c r="H96" s="7" t="s">
         <v>385</v>
       </c>
       <c r="I96" s="2" t="s">
@@ -7029,7 +7026,7 @@
       <c r="J96" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="K96" s="20" t="s">
+      <c r="K96" s="7" t="s">
         <v>385</v>
       </c>
       <c r="L96" s="2" t="s">
@@ -7067,7 +7064,7 @@
       <c r="D97" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="E97" s="20" t="s">
+      <c r="E97" s="7" t="s">
         <v>385</v>
       </c>
       <c r="F97" s="2" t="s">
@@ -7076,7 +7073,7 @@
       <c r="G97" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="H97" s="20" t="s">
+      <c r="H97" s="7" t="s">
         <v>385</v>
       </c>
       <c r="I97" s="2" t="s">
@@ -7085,7 +7082,7 @@
       <c r="J97" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="K97" s="20" t="s">
+      <c r="K97" s="7" t="s">
         <v>385</v>
       </c>
       <c r="L97" s="2" t="s">
@@ -7123,7 +7120,7 @@
       <c r="D98" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="E98" s="20" t="s">
+      <c r="E98" s="7" t="s">
         <v>385</v>
       </c>
       <c r="F98" s="2" t="s">
@@ -7132,7 +7129,7 @@
       <c r="G98" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="H98" s="20" t="s">
+      <c r="H98" s="7" t="s">
         <v>385</v>
       </c>
       <c r="I98" s="2" t="s">
@@ -7141,7 +7138,7 @@
       <c r="J98" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="K98" s="20" t="s">
+      <c r="K98" s="7" t="s">
         <v>385</v>
       </c>
       <c r="L98" s="2" t="s">
@@ -7179,7 +7176,7 @@
       <c r="D99" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="E99" s="20" t="s">
+      <c r="E99" s="7" t="s">
         <v>385</v>
       </c>
       <c r="F99" s="2" t="s">
@@ -7188,7 +7185,7 @@
       <c r="G99" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="H99" s="20" t="s">
+      <c r="H99" s="7" t="s">
         <v>385</v>
       </c>
       <c r="I99" s="2" t="s">
@@ -7197,7 +7194,7 @@
       <c r="J99" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="K99" s="20" t="s">
+      <c r="K99" s="7" t="s">
         <v>385</v>
       </c>
       <c r="L99" s="2" t="s">
@@ -7235,7 +7232,7 @@
       <c r="D100" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="E100" s="20" t="s">
+      <c r="E100" s="7" t="s">
         <v>385</v>
       </c>
       <c r="F100" s="2" t="s">
@@ -7244,7 +7241,7 @@
       <c r="G100" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="H100" s="20" t="s">
+      <c r="H100" s="7" t="s">
         <v>385</v>
       </c>
       <c r="I100" s="2" t="s">
@@ -7253,7 +7250,7 @@
       <c r="J100" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="K100" s="20" t="s">
+      <c r="K100" s="7" t="s">
         <v>385</v>
       </c>
       <c r="L100" s="2" t="s">
@@ -7291,7 +7288,7 @@
       <c r="D101" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="E101" s="20" t="s">
+      <c r="E101" s="7" t="s">
         <v>385</v>
       </c>
       <c r="F101" s="2" t="s">
@@ -7300,7 +7297,7 @@
       <c r="G101" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="H101" s="20" t="s">
+      <c r="H101" s="7" t="s">
         <v>385</v>
       </c>
       <c r="I101" s="2" t="s">
@@ -7309,7 +7306,7 @@
       <c r="J101" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="K101" s="20" t="s">
+      <c r="K101" s="7" t="s">
         <v>385</v>
       </c>
       <c r="L101" s="2" t="s">
@@ -7347,7 +7344,7 @@
       <c r="D102" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="E102" s="20" t="s">
+      <c r="E102" s="7" t="s">
         <v>385</v>
       </c>
       <c r="F102" s="2" t="s">
@@ -7356,7 +7353,7 @@
       <c r="G102" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="H102" s="20" t="s">
+      <c r="H102" s="7" t="s">
         <v>385</v>
       </c>
       <c r="I102" s="2" t="s">
@@ -7365,7 +7362,7 @@
       <c r="J102" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="K102" s="20" t="s">
+      <c r="K102" s="7" t="s">
         <v>385</v>
       </c>
       <c r="L102" s="2" t="s">
@@ -7403,7 +7400,7 @@
       <c r="D103" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="E103" s="20" t="s">
+      <c r="E103" s="7" t="s">
         <v>385</v>
       </c>
       <c r="F103" s="2" t="s">
@@ -7412,7 +7409,7 @@
       <c r="G103" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="H103" s="20" t="s">
+      <c r="H103" s="7" t="s">
         <v>385</v>
       </c>
       <c r="I103" s="2" t="s">
@@ -7421,7 +7418,7 @@
       <c r="J103" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="K103" s="20" t="s">
+      <c r="K103" s="7" t="s">
         <v>385</v>
       </c>
       <c r="L103" s="2" t="s">
@@ -7459,7 +7456,7 @@
       <c r="D104" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="E104" s="20" t="s">
+      <c r="E104" s="7" t="s">
         <v>385</v>
       </c>
       <c r="F104" s="2" t="s">
@@ -7468,7 +7465,7 @@
       <c r="G104" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="H104" s="20" t="s">
+      <c r="H104" s="7" t="s">
         <v>385</v>
       </c>
       <c r="I104" s="2" t="s">
@@ -7477,7 +7474,7 @@
       <c r="J104" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="K104" s="20" t="s">
+      <c r="K104" s="7" t="s">
         <v>385</v>
       </c>
       <c r="L104" s="2" t="s">
@@ -7515,7 +7512,7 @@
       <c r="D105" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="E105" s="20" t="s">
+      <c r="E105" s="7" t="s">
         <v>385</v>
       </c>
       <c r="F105" s="2" t="s">
@@ -7524,7 +7521,7 @@
       <c r="G105" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="H105" s="20" t="s">
+      <c r="H105" s="7" t="s">
         <v>385</v>
       </c>
       <c r="I105" s="2" t="s">
@@ -7533,7 +7530,7 @@
       <c r="J105" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="K105" s="20" t="s">
+      <c r="K105" s="7" t="s">
         <v>385</v>
       </c>
       <c r="L105" s="2" t="s">
@@ -7571,7 +7568,7 @@
       <c r="D106" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="E106" s="20" t="s">
+      <c r="E106" s="7" t="s">
         <v>385</v>
       </c>
       <c r="F106" s="2" t="s">
@@ -7580,7 +7577,7 @@
       <c r="G106" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="H106" s="20" t="s">
+      <c r="H106" s="7" t="s">
         <v>385</v>
       </c>
       <c r="I106" s="2" t="s">
@@ -7589,7 +7586,7 @@
       <c r="J106" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="K106" s="20" t="s">
+      <c r="K106" s="7" t="s">
         <v>385</v>
       </c>
       <c r="L106" s="2" t="s">
@@ -7627,7 +7624,7 @@
       <c r="D107" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="E107" s="20" t="s">
+      <c r="E107" s="7" t="s">
         <v>385</v>
       </c>
       <c r="F107" s="2" t="s">
@@ -7636,7 +7633,7 @@
       <c r="G107" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="H107" s="20" t="s">
+      <c r="H107" s="7" t="s">
         <v>385</v>
       </c>
       <c r="I107" s="2" t="s">
@@ -7645,7 +7642,7 @@
       <c r="J107" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="K107" s="20" t="s">
+      <c r="K107" s="7" t="s">
         <v>385</v>
       </c>
       <c r="L107" s="2" t="s">
@@ -7654,7 +7651,7 @@
       <c r="M107" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="N107" s="20" t="s">
+      <c r="N107" s="7" t="s">
         <v>385</v>
       </c>
       <c r="O107" s="2" t="s">
@@ -7683,7 +7680,7 @@
       <c r="D108" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="E108" s="20" t="s">
+      <c r="E108" s="7" t="s">
         <v>385</v>
       </c>
       <c r="F108" s="2" t="s">
@@ -7692,7 +7689,7 @@
       <c r="G108" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="H108" s="20" t="s">
+      <c r="H108" s="7" t="s">
         <v>385</v>
       </c>
       <c r="I108" s="2" t="s">
@@ -7701,7 +7698,7 @@
       <c r="J108" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="K108" s="20" t="s">
+      <c r="K108" s="7" t="s">
         <v>385</v>
       </c>
       <c r="L108" s="2" t="s">
@@ -7739,7 +7736,7 @@
       <c r="D109" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="E109" s="20" t="s">
+      <c r="E109" s="7" t="s">
         <v>385</v>
       </c>
       <c r="F109" s="2" t="s">
@@ -7748,7 +7745,7 @@
       <c r="G109" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="H109" s="20" t="s">
+      <c r="H109" s="7" t="s">
         <v>385</v>
       </c>
       <c r="I109" s="2" t="s">
@@ -7757,7 +7754,7 @@
       <c r="J109" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="K109" s="20" t="s">
+      <c r="K109" s="7" t="s">
         <v>385</v>
       </c>
       <c r="L109" s="2" t="s">
@@ -7766,7 +7763,7 @@
       <c r="M109" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="N109" s="20" t="s">
+      <c r="N109" s="7" t="s">
         <v>385</v>
       </c>
       <c r="O109" s="2" t="s">
@@ -7795,7 +7792,7 @@
       <c r="D110" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="E110" s="20" t="s">
+      <c r="E110" s="7" t="s">
         <v>385</v>
       </c>
       <c r="F110" s="2" t="s">
@@ -7804,7 +7801,7 @@
       <c r="G110" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="H110" s="20" t="s">
+      <c r="H110" s="7" t="s">
         <v>385</v>
       </c>
       <c r="I110" s="2" t="s">
@@ -7813,7 +7810,7 @@
       <c r="J110" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="K110" s="20" t="s">
+      <c r="K110" s="7" t="s">
         <v>385</v>
       </c>
       <c r="L110" s="2" t="s">
@@ -7822,7 +7819,7 @@
       <c r="M110" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="N110" s="20" t="s">
+      <c r="N110" s="7" t="s">
         <v>385</v>
       </c>
       <c r="O110" s="2" t="s">
@@ -7851,7 +7848,7 @@
       <c r="D111" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="E111" s="20" t="s">
+      <c r="E111" s="7" t="s">
         <v>385</v>
       </c>
       <c r="F111" s="2" t="s">
@@ -7860,7 +7857,7 @@
       <c r="G111" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="H111" s="20" t="s">
+      <c r="H111" s="7" t="s">
         <v>385</v>
       </c>
       <c r="I111" s="2" t="s">
@@ -7869,7 +7866,7 @@
       <c r="J111" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="K111" s="20" t="s">
+      <c r="K111" s="7" t="s">
         <v>385</v>
       </c>
       <c r="L111" s="2" t="s">
@@ -7878,7 +7875,7 @@
       <c r="M111" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="N111" s="20" t="s">
+      <c r="N111" s="7" t="s">
         <v>385</v>
       </c>
       <c r="O111" s="2" t="s">
@@ -7907,7 +7904,7 @@
       <c r="D112" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="E112" s="20" t="s">
+      <c r="E112" s="7" t="s">
         <v>385</v>
       </c>
       <c r="F112" s="2" t="s">
@@ -7916,7 +7913,7 @@
       <c r="G112" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="H112" s="20" t="s">
+      <c r="H112" s="7" t="s">
         <v>385</v>
       </c>
       <c r="I112" s="2" t="s">
@@ -7925,7 +7922,7 @@
       <c r="J112" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="K112" s="20" t="s">
+      <c r="K112" s="7" t="s">
         <v>385</v>
       </c>
       <c r="L112" s="2" t="s">
@@ -7963,7 +7960,7 @@
       <c r="D113" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="E113" s="20" t="s">
+      <c r="E113" s="7" t="s">
         <v>385</v>
       </c>
       <c r="F113" s="2" t="s">
@@ -7972,7 +7969,7 @@
       <c r="G113" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="H113" s="20" t="s">
+      <c r="H113" s="7" t="s">
         <v>385</v>
       </c>
       <c r="I113" s="2" t="s">
@@ -7981,7 +7978,7 @@
       <c r="J113" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="K113" s="20" t="s">
+      <c r="K113" s="7" t="s">
         <v>385</v>
       </c>
       <c r="L113" s="2" t="s">
@@ -7990,7 +7987,7 @@
       <c r="M113" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="N113" s="20" t="s">
+      <c r="N113" s="7" t="s">
         <v>385</v>
       </c>
       <c r="O113" s="2" t="s">
@@ -8019,7 +8016,7 @@
       <c r="D114" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="E114" s="20" t="s">
+      <c r="E114" s="7" t="s">
         <v>385</v>
       </c>
       <c r="F114" s="2" t="s">
@@ -8028,7 +8025,7 @@
       <c r="G114" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="H114" s="20" t="s">
+      <c r="H114" s="7" t="s">
         <v>385</v>
       </c>
       <c r="I114" s="2" t="s">
@@ -8037,7 +8034,7 @@
       <c r="J114" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="K114" s="20" t="s">
+      <c r="K114" s="7" t="s">
         <v>385</v>
       </c>
       <c r="L114" s="2" t="s">
@@ -8046,7 +8043,7 @@
       <c r="M114" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="N114" s="20" t="s">
+      <c r="N114" s="7" t="s">
         <v>385</v>
       </c>
       <c r="O114" s="2" t="s">
@@ -8075,7 +8072,7 @@
       <c r="D115" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="E115" s="20" t="s">
+      <c r="E115" s="7" t="s">
         <v>385</v>
       </c>
       <c r="F115" s="2" t="s">
@@ -8084,7 +8081,7 @@
       <c r="G115" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="H115" s="20" t="s">
+      <c r="H115" s="7" t="s">
         <v>385</v>
       </c>
       <c r="I115" s="2" t="s">
@@ -8093,7 +8090,7 @@
       <c r="J115" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="K115" s="20" t="s">
+      <c r="K115" s="7" t="s">
         <v>385</v>
       </c>
       <c r="L115" s="2" t="s">
@@ -8102,7 +8099,7 @@
       <c r="M115" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="N115" s="20" t="s">
+      <c r="N115" s="7" t="s">
         <v>385</v>
       </c>
       <c r="O115" s="2" t="s">
@@ -8131,7 +8128,7 @@
       <c r="D116" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="E116" s="20" t="s">
+      <c r="E116" s="7" t="s">
         <v>385</v>
       </c>
       <c r="F116" s="2" t="s">
@@ -8140,7 +8137,7 @@
       <c r="G116" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="H116" s="20" t="s">
+      <c r="H116" s="7" t="s">
         <v>385</v>
       </c>
       <c r="I116" s="2" t="s">
@@ -8149,7 +8146,7 @@
       <c r="J116" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="K116" s="20" t="s">
+      <c r="K116" s="7" t="s">
         <v>385</v>
       </c>
       <c r="L116" s="2" t="s">
@@ -8158,7 +8155,7 @@
       <c r="M116" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="N116" s="20" t="s">
+      <c r="N116" s="7" t="s">
         <v>385</v>
       </c>
       <c r="O116" s="2" t="s">
@@ -8187,7 +8184,7 @@
       <c r="D117" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="E117" s="20" t="s">
+      <c r="E117" s="7" t="s">
         <v>385</v>
       </c>
       <c r="F117" s="2" t="s">
@@ -8196,7 +8193,7 @@
       <c r="G117" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="H117" s="20" t="s">
+      <c r="H117" s="7" t="s">
         <v>385</v>
       </c>
       <c r="I117" s="2" t="s">
@@ -8205,7 +8202,7 @@
       <c r="J117" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="K117" s="20" t="s">
+      <c r="K117" s="7" t="s">
         <v>385</v>
       </c>
       <c r="L117" s="2" t="s">
@@ -8214,7 +8211,7 @@
       <c r="M117" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="N117" s="20" t="s">
+      <c r="N117" s="7" t="s">
         <v>385</v>
       </c>
       <c r="O117" s="2" t="s">
@@ -8243,7 +8240,7 @@
       <c r="D118" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="E118" s="20" t="s">
+      <c r="E118" s="7" t="s">
         <v>385</v>
       </c>
       <c r="F118" s="2" t="s">
@@ -8252,7 +8249,7 @@
       <c r="G118" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="H118" s="20" t="s">
+      <c r="H118" s="7" t="s">
         <v>385</v>
       </c>
       <c r="I118" s="2" t="s">
@@ -8261,7 +8258,7 @@
       <c r="J118" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="K118" s="20" t="s">
+      <c r="K118" s="7" t="s">
         <v>385</v>
       </c>
       <c r="L118" s="2" t="s">
@@ -8270,7 +8267,7 @@
       <c r="M118" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="N118" s="20" t="s">
+      <c r="N118" s="7" t="s">
         <v>385</v>
       </c>
       <c r="O118" s="2" t="s">
@@ -8299,7 +8296,7 @@
       <c r="D119" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="E119" s="20" t="s">
+      <c r="E119" s="7" t="s">
         <v>385</v>
       </c>
       <c r="F119" s="2" t="s">
@@ -8308,7 +8305,7 @@
       <c r="G119" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="H119" s="20" t="s">
+      <c r="H119" s="7" t="s">
         <v>385</v>
       </c>
       <c r="I119" s="2" t="s">
@@ -8317,7 +8314,7 @@
       <c r="J119" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="K119" s="20" t="s">
+      <c r="K119" s="7" t="s">
         <v>385</v>
       </c>
       <c r="L119" s="2" t="s">
@@ -8326,7 +8323,7 @@
       <c r="M119" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="N119" s="20" t="s">
+      <c r="N119" s="7" t="s">
         <v>385</v>
       </c>
       <c r="O119" s="2" t="s">
@@ -8355,7 +8352,7 @@
       <c r="D120" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="E120" s="20" t="s">
+      <c r="E120" s="7" t="s">
         <v>385</v>
       </c>
       <c r="F120" s="2" t="s">
@@ -8364,7 +8361,7 @@
       <c r="G120" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="H120" s="20" t="s">
+      <c r="H120" s="7" t="s">
         <v>385</v>
       </c>
       <c r="I120" s="2" t="s">
@@ -8373,7 +8370,7 @@
       <c r="J120" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="K120" s="20" t="s">
+      <c r="K120" s="7" t="s">
         <v>385</v>
       </c>
       <c r="L120" s="2" t="s">
@@ -8382,7 +8379,7 @@
       <c r="M120" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="N120" s="20" t="s">
+      <c r="N120" s="7" t="s">
         <v>385</v>
       </c>
       <c r="O120" s="2" t="s">
@@ -8411,7 +8408,7 @@
       <c r="D121" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="E121" s="20" t="s">
+      <c r="E121" s="7" t="s">
         <v>385</v>
       </c>
       <c r="F121" s="2" t="s">
@@ -8420,7 +8417,7 @@
       <c r="G121" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="H121" s="20" t="s">
+      <c r="H121" s="7" t="s">
         <v>385</v>
       </c>
       <c r="I121" s="2" t="s">
@@ -8429,7 +8426,7 @@
       <c r="J121" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="K121" s="20" t="s">
+      <c r="K121" s="7" t="s">
         <v>385</v>
       </c>
       <c r="L121" s="2" t="s">
@@ -8438,7 +8435,7 @@
       <c r="M121" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="N121" s="20" t="s">
+      <c r="N121" s="7" t="s">
         <v>385</v>
       </c>
       <c r="O121" s="2" t="s">
@@ -8467,7 +8464,7 @@
       <c r="D122" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="E122" s="20" t="s">
+      <c r="E122" s="7" t="s">
         <v>385</v>
       </c>
       <c r="F122" s="2" t="s">
@@ -8476,7 +8473,7 @@
       <c r="G122" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="H122" s="20" t="s">
+      <c r="H122" s="7" t="s">
         <v>385</v>
       </c>
       <c r="I122" s="2" t="s">
@@ -8485,7 +8482,7 @@
       <c r="J122" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="K122" s="20" t="s">
+      <c r="K122" s="7" t="s">
         <v>385</v>
       </c>
       <c r="L122" s="2" t="s">
@@ -8494,7 +8491,7 @@
       <c r="M122" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="N122" s="20" t="s">
+      <c r="N122" s="7" t="s">
         <v>385</v>
       </c>
       <c r="O122" s="2" t="s">
@@ -8523,7 +8520,7 @@
       <c r="D123" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="E123" s="20" t="s">
+      <c r="E123" s="7" t="s">
         <v>385</v>
       </c>
       <c r="F123" s="2" t="s">
@@ -8532,7 +8529,7 @@
       <c r="G123" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="H123" s="20" t="s">
+      <c r="H123" s="7" t="s">
         <v>385</v>
       </c>
       <c r="I123" s="2" t="s">
@@ -8541,7 +8538,7 @@
       <c r="J123" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="K123" s="20" t="s">
+      <c r="K123" s="7" t="s">
         <v>385</v>
       </c>
       <c r="L123" s="2" t="s">
@@ -8550,7 +8547,7 @@
       <c r="M123" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="N123" s="20" t="s">
+      <c r="N123" s="7" t="s">
         <v>385</v>
       </c>
       <c r="O123" s="2" t="s">
@@ -8579,7 +8576,7 @@
       <c r="D124" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="E124" s="20" t="s">
+      <c r="E124" s="7" t="s">
         <v>385</v>
       </c>
       <c r="F124" s="2" t="s">
@@ -8588,7 +8585,7 @@
       <c r="G124" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="H124" s="20" t="s">
+      <c r="H124" s="7" t="s">
         <v>385</v>
       </c>
       <c r="I124" s="2" t="s">
@@ -8597,7 +8594,7 @@
       <c r="J124" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="K124" s="20" t="s">
+      <c r="K124" s="7" t="s">
         <v>385</v>
       </c>
       <c r="L124" s="2" t="s">
@@ -8606,7 +8603,7 @@
       <c r="M124" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="N124" s="20" t="s">
+      <c r="N124" s="7" t="s">
         <v>385</v>
       </c>
       <c r="O124" s="2" t="s">
@@ -8635,7 +8632,7 @@
       <c r="D125" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="E125" s="20" t="s">
+      <c r="E125" s="7" t="s">
         <v>385</v>
       </c>
       <c r="F125" s="2" t="s">
@@ -8644,7 +8641,7 @@
       <c r="G125" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="H125" s="20" t="s">
+      <c r="H125" s="7" t="s">
         <v>385</v>
       </c>
       <c r="I125" s="2" t="s">
@@ -8653,7 +8650,7 @@
       <c r="J125" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="K125" s="20" t="s">
+      <c r="K125" s="7" t="s">
         <v>385</v>
       </c>
       <c r="L125" s="2" t="s">
@@ -8662,7 +8659,7 @@
       <c r="M125" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="N125" s="20" t="s">
+      <c r="N125" s="7" t="s">
         <v>385</v>
       </c>
       <c r="O125" s="2" t="s">
@@ -8691,7 +8688,7 @@
       <c r="D126" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="E126" s="20" t="s">
+      <c r="E126" s="7" t="s">
         <v>385</v>
       </c>
       <c r="F126" s="2" t="s">
@@ -8700,7 +8697,7 @@
       <c r="G126" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="H126" s="20" t="s">
+      <c r="H126" s="7" t="s">
         <v>385</v>
       </c>
       <c r="I126" s="2" t="s">
@@ -8709,7 +8706,7 @@
       <c r="J126" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="K126" s="20" t="s">
+      <c r="K126" s="7" t="s">
         <v>385</v>
       </c>
       <c r="L126" s="2" t="s">
@@ -8718,7 +8715,7 @@
       <c r="M126" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="N126" s="20" t="s">
+      <c r="N126" s="7" t="s">
         <v>385</v>
       </c>
       <c r="O126" s="2" t="s">
@@ -8747,7 +8744,7 @@
       <c r="D127" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="E127" s="20" t="s">
+      <c r="E127" s="7" t="s">
         <v>385</v>
       </c>
       <c r="F127" s="2" t="s">
@@ -8756,7 +8753,7 @@
       <c r="G127" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="H127" s="20" t="s">
+      <c r="H127" s="7" t="s">
         <v>385</v>
       </c>
       <c r="I127" s="2" t="s">
@@ -8765,7 +8762,7 @@
       <c r="J127" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="K127" s="20" t="s">
+      <c r="K127" s="7" t="s">
         <v>385</v>
       </c>
       <c r="L127" s="2" t="s">
@@ -8774,7 +8771,7 @@
       <c r="M127" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="N127" s="20" t="s">
+      <c r="N127" s="7" t="s">
         <v>385</v>
       </c>
       <c r="O127" s="2" t="s">
@@ -8803,7 +8800,7 @@
       <c r="D128" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="E128" s="20" t="s">
+      <c r="E128" s="7" t="s">
         <v>385</v>
       </c>
       <c r="F128" s="2" t="s">
@@ -8812,7 +8809,7 @@
       <c r="G128" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="H128" s="20" t="s">
+      <c r="H128" s="7" t="s">
         <v>385</v>
       </c>
       <c r="I128" s="2" t="s">
@@ -8821,7 +8818,7 @@
       <c r="J128" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="K128" s="20" t="s">
+      <c r="K128" s="7" t="s">
         <v>385</v>
       </c>
       <c r="L128" s="2" t="s">
@@ -8830,7 +8827,7 @@
       <c r="M128" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="N128" s="20" t="s">
+      <c r="N128" s="7" t="s">
         <v>385</v>
       </c>
       <c r="O128" s="2" t="s">
@@ -8859,7 +8856,7 @@
       <c r="D129" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="E129" s="20" t="s">
+      <c r="E129" s="7" t="s">
         <v>385</v>
       </c>
       <c r="F129" s="2" t="s">
@@ -8868,7 +8865,7 @@
       <c r="G129" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="H129" s="20" t="s">
+      <c r="H129" s="7" t="s">
         <v>385</v>
       </c>
       <c r="I129" s="2" t="s">
@@ -8877,7 +8874,7 @@
       <c r="J129" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="K129" s="20" t="s">
+      <c r="K129" s="7" t="s">
         <v>385</v>
       </c>
       <c r="L129" s="2" t="s">
@@ -8886,7 +8883,7 @@
       <c r="M129" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="N129" s="20" t="s">
+      <c r="N129" s="7" t="s">
         <v>385</v>
       </c>
       <c r="O129" s="2" t="s">
@@ -8915,7 +8912,7 @@
       <c r="D130" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="E130" s="20" t="s">
+      <c r="E130" s="7" t="s">
         <v>385</v>
       </c>
       <c r="F130" s="2" t="s">
@@ -8924,7 +8921,7 @@
       <c r="G130" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="H130" s="20" t="s">
+      <c r="H130" s="7" t="s">
         <v>385</v>
       </c>
       <c r="I130" s="2" t="s">
@@ -8933,7 +8930,7 @@
       <c r="J130" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="K130" s="20" t="s">
+      <c r="K130" s="7" t="s">
         <v>385</v>
       </c>
       <c r="L130" s="2" t="s">
@@ -8942,7 +8939,7 @@
       <c r="M130" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="N130" s="20" t="s">
+      <c r="N130" s="7" t="s">
         <v>385</v>
       </c>
       <c r="O130" s="2" t="s">
@@ -8971,7 +8968,7 @@
       <c r="D131" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="E131" s="20" t="s">
+      <c r="E131" s="7" t="s">
         <v>385</v>
       </c>
       <c r="F131" s="2" t="s">
@@ -8980,7 +8977,7 @@
       <c r="G131" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="H131" s="20" t="s">
+      <c r="H131" s="7" t="s">
         <v>385</v>
       </c>
       <c r="I131" s="2" t="s">
@@ -8989,7 +8986,7 @@
       <c r="J131" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="K131" s="20" t="s">
+      <c r="K131" s="7" t="s">
         <v>385</v>
       </c>
       <c r="L131" s="2" t="s">
@@ -8998,7 +8995,7 @@
       <c r="M131" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="N131" s="20" t="s">
+      <c r="N131" s="7" t="s">
         <v>385</v>
       </c>
       <c r="O131" s="2" t="s">
@@ -9027,7 +9024,7 @@
       <c r="D132" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="E132" s="20" t="s">
+      <c r="E132" s="7" t="s">
         <v>385</v>
       </c>
       <c r="F132" s="2" t="s">
@@ -9036,7 +9033,7 @@
       <c r="G132" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="H132" s="20" t="s">
+      <c r="H132" s="7" t="s">
         <v>385</v>
       </c>
       <c r="I132" s="2" t="s">
@@ -9045,7 +9042,7 @@
       <c r="J132" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="K132" s="20" t="s">
+      <c r="K132" s="7" t="s">
         <v>385</v>
       </c>
       <c r="L132" s="2" t="s">
@@ -9054,7 +9051,7 @@
       <c r="M132" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="N132" s="20" t="s">
+      <c r="N132" s="7" t="s">
         <v>385</v>
       </c>
       <c r="O132" s="2" t="s">
@@ -9083,7 +9080,7 @@
       <c r="D133" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="E133" s="20" t="s">
+      <c r="E133" s="7" t="s">
         <v>385</v>
       </c>
       <c r="F133" s="2" t="s">
@@ -9092,7 +9089,7 @@
       <c r="G133" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="H133" s="20" t="s">
+      <c r="H133" s="7" t="s">
         <v>385</v>
       </c>
       <c r="I133" s="2" t="s">
@@ -9101,7 +9098,7 @@
       <c r="J133" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="K133" s="20" t="s">
+      <c r="K133" s="7" t="s">
         <v>385</v>
       </c>
       <c r="L133" s="2" t="s">
@@ -9110,7 +9107,7 @@
       <c r="M133" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="N133" s="20" t="s">
+      <c r="N133" s="7" t="s">
         <v>385</v>
       </c>
       <c r="O133" s="2" t="s">
@@ -9139,7 +9136,7 @@
       <c r="D134" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="E134" s="20" t="s">
+      <c r="E134" s="7" t="s">
         <v>385</v>
       </c>
       <c r="F134" s="2" t="s">
@@ -9148,7 +9145,7 @@
       <c r="G134" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="H134" s="20" t="s">
+      <c r="H134" s="7" t="s">
         <v>385</v>
       </c>
       <c r="I134" s="2" t="s">
@@ -9157,7 +9154,7 @@
       <c r="J134" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="K134" s="20" t="s">
+      <c r="K134" s="7" t="s">
         <v>385</v>
       </c>
       <c r="L134" s="2" t="s">
@@ -9166,7 +9163,7 @@
       <c r="M134" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="N134" s="20" t="s">
+      <c r="N134" s="7" t="s">
         <v>385</v>
       </c>
       <c r="O134" s="2" t="s">
@@ -9195,7 +9192,7 @@
       <c r="D135" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="E135" s="20" t="s">
+      <c r="E135" s="7" t="s">
         <v>385</v>
       </c>
       <c r="F135" s="2" t="s">
@@ -9204,7 +9201,7 @@
       <c r="G135" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="H135" s="20" t="s">
+      <c r="H135" s="7" t="s">
         <v>385</v>
       </c>
       <c r="I135" s="2" t="s">
@@ -9213,7 +9210,7 @@
       <c r="J135" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="K135" s="20" t="s">
+      <c r="K135" s="7" t="s">
         <v>385</v>
       </c>
       <c r="L135" s="2" t="s">
@@ -9222,7 +9219,7 @@
       <c r="M135" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="N135" s="20" t="s">
+      <c r="N135" s="7" t="s">
         <v>385</v>
       </c>
       <c r="O135" s="2" t="s">
@@ -9251,7 +9248,7 @@
       <c r="D136" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="E136" s="20" t="s">
+      <c r="E136" s="7" t="s">
         <v>385</v>
       </c>
       <c r="F136" s="2" t="s">
@@ -9260,7 +9257,7 @@
       <c r="G136" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="H136" s="20" t="s">
+      <c r="H136" s="7" t="s">
         <v>385</v>
       </c>
       <c r="I136" s="2" t="s">
@@ -9269,7 +9266,7 @@
       <c r="J136" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="K136" s="20" t="s">
+      <c r="K136" s="7" t="s">
         <v>385</v>
       </c>
       <c r="L136" s="2" t="s">
@@ -9278,7 +9275,7 @@
       <c r="M136" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="N136" s="20" t="s">
+      <c r="N136" s="7" t="s">
         <v>385</v>
       </c>
       <c r="O136" s="2" t="s">
@@ -9307,7 +9304,7 @@
       <c r="D137" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="E137" s="20" t="s">
+      <c r="E137" s="7" t="s">
         <v>385</v>
       </c>
       <c r="F137" s="2" t="s">
@@ -9316,7 +9313,7 @@
       <c r="G137" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="H137" s="20" t="s">
+      <c r="H137" s="7" t="s">
         <v>385</v>
       </c>
       <c r="I137" s="2" t="s">
@@ -9325,7 +9322,7 @@
       <c r="J137" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="K137" s="20" t="s">
+      <c r="K137" s="7" t="s">
         <v>385</v>
       </c>
       <c r="L137" s="2" t="s">
@@ -9334,7 +9331,7 @@
       <c r="M137" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="N137" s="20" t="s">
+      <c r="N137" s="7" t="s">
         <v>385</v>
       </c>
       <c r="O137" s="2" t="s">
@@ -9363,7 +9360,7 @@
       <c r="D138" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="E138" s="20" t="s">
+      <c r="E138" s="7" t="s">
         <v>385</v>
       </c>
       <c r="F138" s="2" t="s">
@@ -9372,7 +9369,7 @@
       <c r="G138" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="H138" s="20" t="s">
+      <c r="H138" s="7" t="s">
         <v>385</v>
       </c>
       <c r="I138" s="2" t="s">
@@ -9381,7 +9378,7 @@
       <c r="J138" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="K138" s="20" t="s">
+      <c r="K138" s="7" t="s">
         <v>385</v>
       </c>
       <c r="L138" s="2" t="s">
@@ -9390,7 +9387,7 @@
       <c r="M138" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="N138" s="20" t="s">
+      <c r="N138" s="7" t="s">
         <v>385</v>
       </c>
       <c r="O138" s="2" t="s">
@@ -9419,7 +9416,7 @@
       <c r="D139" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="E139" s="20" t="s">
+      <c r="E139" s="7" t="s">
         <v>385</v>
       </c>
       <c r="F139" s="2" t="s">
@@ -9428,7 +9425,7 @@
       <c r="G139" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="H139" s="20" t="s">
+      <c r="H139" s="7" t="s">
         <v>385</v>
       </c>
       <c r="I139" s="2" t="s">
@@ -9437,7 +9434,7 @@
       <c r="J139" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="K139" s="20" t="s">
+      <c r="K139" s="7" t="s">
         <v>385</v>
       </c>
       <c r="L139" s="2" t="s">
@@ -9446,7 +9443,7 @@
       <c r="M139" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="N139" s="20" t="s">
+      <c r="N139" s="7" t="s">
         <v>385</v>
       </c>
       <c r="O139" s="2" t="s">
@@ -9475,7 +9472,7 @@
       <c r="D140" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="E140" s="20" t="s">
+      <c r="E140" s="7" t="s">
         <v>385</v>
       </c>
       <c r="F140" s="2" t="s">
@@ -9484,7 +9481,7 @@
       <c r="G140" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="H140" s="20" t="s">
+      <c r="H140" s="7" t="s">
         <v>385</v>
       </c>
       <c r="I140" s="2" t="s">
@@ -9493,7 +9490,7 @@
       <c r="J140" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="K140" s="20" t="s">
+      <c r="K140" s="7" t="s">
         <v>385</v>
       </c>
       <c r="L140" s="2" t="s">
@@ -9502,7 +9499,7 @@
       <c r="M140" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="N140" s="20" t="s">
+      <c r="N140" s="7" t="s">
         <v>385</v>
       </c>
       <c r="O140" s="2" t="s">
@@ -9531,7 +9528,7 @@
       <c r="D141" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="E141" s="20" t="s">
+      <c r="E141" s="7" t="s">
         <v>385</v>
       </c>
       <c r="F141" s="2" t="s">
@@ -9540,7 +9537,7 @@
       <c r="G141" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="H141" s="20" t="s">
+      <c r="H141" s="7" t="s">
         <v>385</v>
       </c>
       <c r="I141" s="2" t="s">
@@ -9549,7 +9546,7 @@
       <c r="J141" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="K141" s="20" t="s">
+      <c r="K141" s="7" t="s">
         <v>385</v>
       </c>
       <c r="L141" s="2" t="s">
@@ -9558,7 +9555,7 @@
       <c r="M141" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="N141" s="20" t="s">
+      <c r="N141" s="7" t="s">
         <v>385</v>
       </c>
       <c r="O141" s="2" t="s">
@@ -9587,7 +9584,7 @@
       <c r="D142" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="E142" s="20" t="s">
+      <c r="E142" s="7" t="s">
         <v>385</v>
       </c>
       <c r="F142" s="2" t="s">
@@ -9596,7 +9593,7 @@
       <c r="G142" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="H142" s="20" t="s">
+      <c r="H142" s="7" t="s">
         <v>385</v>
       </c>
       <c r="I142" s="2" t="s">
@@ -9605,7 +9602,7 @@
       <c r="J142" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="K142" s="20" t="s">
+      <c r="K142" s="7" t="s">
         <v>385</v>
       </c>
       <c r="L142" s="2" t="s">
@@ -9614,7 +9611,7 @@
       <c r="M142" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="N142" s="20" t="s">
+      <c r="N142" s="7" t="s">
         <v>385</v>
       </c>
       <c r="O142" s="2" t="s">
@@ -9643,7 +9640,7 @@
       <c r="D143" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="E143" s="20" t="s">
+      <c r="E143" s="7" t="s">
         <v>385</v>
       </c>
       <c r="F143" s="2" t="s">
@@ -9652,7 +9649,7 @@
       <c r="G143" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="H143" s="20" t="s">
+      <c r="H143" s="7" t="s">
         <v>385</v>
       </c>
       <c r="I143" s="2" t="s">
@@ -9661,7 +9658,7 @@
       <c r="J143" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="K143" s="20" t="s">
+      <c r="K143" s="7" t="s">
         <v>385</v>
       </c>
       <c r="L143" s="2" t="s">
@@ -9670,7 +9667,7 @@
       <c r="M143" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="N143" s="20" t="s">
+      <c r="N143" s="7" t="s">
         <v>385</v>
       </c>
       <c r="O143" s="2" t="s">
@@ -9699,7 +9696,7 @@
       <c r="D144" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="E144" s="20" t="s">
+      <c r="E144" s="7" t="s">
         <v>385</v>
       </c>
       <c r="F144" s="2" t="s">
@@ -9708,7 +9705,7 @@
       <c r="G144" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="H144" s="20" t="s">
+      <c r="H144" s="7" t="s">
         <v>385</v>
       </c>
       <c r="I144" s="2" t="s">
@@ -9717,7 +9714,7 @@
       <c r="J144" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="K144" s="20" t="s">
+      <c r="K144" s="7" t="s">
         <v>385</v>
       </c>
       <c r="L144" s="2" t="s">
@@ -9726,7 +9723,7 @@
       <c r="M144" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="N144" s="20" t="s">
+      <c r="N144" s="7" t="s">
         <v>385</v>
       </c>
       <c r="O144" s="2" t="s">
@@ -9755,7 +9752,7 @@
       <c r="D145" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="E145" s="20" t="s">
+      <c r="E145" s="7" t="s">
         <v>385</v>
       </c>
       <c r="F145" s="2" t="s">
@@ -9764,7 +9761,7 @@
       <c r="G145" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="H145" s="20" t="s">
+      <c r="H145" s="7" t="s">
         <v>385</v>
       </c>
       <c r="I145" s="2" t="s">
@@ -9773,7 +9770,7 @@
       <c r="J145" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="K145" s="20" t="s">
+      <c r="K145" s="7" t="s">
         <v>385</v>
       </c>
       <c r="L145" s="2" t="s">
@@ -9782,7 +9779,7 @@
       <c r="M145" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="N145" s="20" t="s">
+      <c r="N145" s="7" t="s">
         <v>385</v>
       </c>
       <c r="O145" s="2" t="s">
@@ -9811,7 +9808,7 @@
       <c r="D146" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="E146" s="20" t="s">
+      <c r="E146" s="7" t="s">
         <v>385</v>
       </c>
       <c r="F146" s="2" t="s">
@@ -9820,7 +9817,7 @@
       <c r="G146" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="H146" s="20" t="s">
+      <c r="H146" s="7" t="s">
         <v>385</v>
       </c>
       <c r="I146" s="2" t="s">
@@ -9829,7 +9826,7 @@
       <c r="J146" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="K146" s="20" t="s">
+      <c r="K146" s="7" t="s">
         <v>385</v>
       </c>
       <c r="L146" s="2" t="s">
@@ -9838,7 +9835,7 @@
       <c r="M146" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="N146" s="20" t="s">
+      <c r="N146" s="7" t="s">
         <v>385</v>
       </c>
       <c r="O146" s="2" t="s">
@@ -9867,7 +9864,7 @@
       <c r="D147" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="E147" s="20" t="s">
+      <c r="E147" s="7" t="s">
         <v>385</v>
       </c>
       <c r="F147" s="2" t="s">
@@ -9876,7 +9873,7 @@
       <c r="G147" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="H147" s="20" t="s">
+      <c r="H147" s="7" t="s">
         <v>385</v>
       </c>
       <c r="I147" s="2" t="s">
@@ -9885,7 +9882,7 @@
       <c r="J147" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="K147" s="20" t="s">
+      <c r="K147" s="7" t="s">
         <v>385</v>
       </c>
       <c r="L147" s="2" t="s">
@@ -9894,7 +9891,7 @@
       <c r="M147" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="N147" s="20" t="s">
+      <c r="N147" s="7" t="s">
         <v>385</v>
       </c>
       <c r="O147" s="2" t="s">
@@ -9923,7 +9920,7 @@
       <c r="D148" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="E148" s="20" t="s">
+      <c r="E148" s="7" t="s">
         <v>385</v>
       </c>
       <c r="F148" s="2" t="s">
@@ -9932,7 +9929,7 @@
       <c r="G148" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="H148" s="20" t="s">
+      <c r="H148" s="7" t="s">
         <v>385</v>
       </c>
       <c r="I148" s="2" t="s">
@@ -9941,7 +9938,7 @@
       <c r="J148" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="K148" s="20" t="s">
+      <c r="K148" s="7" t="s">
         <v>385</v>
       </c>
       <c r="L148" s="2" t="s">
@@ -9950,7 +9947,7 @@
       <c r="M148" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="N148" s="20" t="s">
+      <c r="N148" s="7" t="s">
         <v>385</v>
       </c>
       <c r="O148" s="2" t="s">
@@ -9979,7 +9976,7 @@
       <c r="D149" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="E149" s="20" t="s">
+      <c r="E149" s="7" t="s">
         <v>385</v>
       </c>
       <c r="F149" s="2" t="s">
@@ -9988,7 +9985,7 @@
       <c r="G149" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="H149" s="20" t="s">
+      <c r="H149" s="7" t="s">
         <v>385</v>
       </c>
       <c r="I149" s="2" t="s">
@@ -9997,7 +9994,7 @@
       <c r="J149" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="K149" s="20" t="s">
+      <c r="K149" s="7" t="s">
         <v>385</v>
       </c>
       <c r="L149" s="2" t="s">
@@ -10006,7 +10003,7 @@
       <c r="M149" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="N149" s="20" t="s">
+      <c r="N149" s="7" t="s">
         <v>385</v>
       </c>
       <c r="O149" s="2" t="s">
@@ -10035,7 +10032,7 @@
       <c r="D150" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="E150" s="20" t="s">
+      <c r="E150" s="7" t="s">
         <v>385</v>
       </c>
       <c r="F150" s="2" t="s">
@@ -10044,7 +10041,7 @@
       <c r="G150" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="H150" s="20" t="s">
+      <c r="H150" s="7" t="s">
         <v>385</v>
       </c>
       <c r="I150" s="2" t="s">
@@ -10053,7 +10050,7 @@
       <c r="J150" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="K150" s="20" t="s">
+      <c r="K150" s="7" t="s">
         <v>385</v>
       </c>
       <c r="L150" s="2" t="s">
@@ -10062,7 +10059,7 @@
       <c r="M150" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="N150" s="20" t="s">
+      <c r="N150" s="7" t="s">
         <v>385</v>
       </c>
       <c r="O150" s="2" t="s">
@@ -10091,7 +10088,7 @@
       <c r="D151" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="E151" s="20" t="s">
+      <c r="E151" s="7" t="s">
         <v>385</v>
       </c>
       <c r="F151" s="2" t="s">
@@ -10100,7 +10097,7 @@
       <c r="G151" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="H151" s="20" t="s">
+      <c r="H151" s="7" t="s">
         <v>385</v>
       </c>
       <c r="I151" s="2" t="s">
@@ -10109,7 +10106,7 @@
       <c r="J151" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="K151" s="20" t="s">
+      <c r="K151" s="7" t="s">
         <v>385</v>
       </c>
       <c r="L151" s="2" t="s">
@@ -10118,7 +10115,7 @@
       <c r="M151" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="N151" s="20" t="s">
+      <c r="N151" s="7" t="s">
         <v>385</v>
       </c>
       <c r="O151" s="2" t="s">
@@ -10147,7 +10144,7 @@
       <c r="D152" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="E152" s="20" t="s">
+      <c r="E152" s="7" t="s">
         <v>385</v>
       </c>
       <c r="F152" s="2" t="s">
@@ -10156,7 +10153,7 @@
       <c r="G152" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="H152" s="20" t="s">
+      <c r="H152" s="7" t="s">
         <v>385</v>
       </c>
       <c r="I152" s="2" t="s">
@@ -10165,7 +10162,7 @@
       <c r="J152" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="K152" s="20" t="s">
+      <c r="K152" s="7" t="s">
         <v>385</v>
       </c>
       <c r="L152" s="2" t="s">
@@ -10174,7 +10171,7 @@
       <c r="M152" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="N152" s="20" t="s">
+      <c r="N152" s="7" t="s">
         <v>385</v>
       </c>
       <c r="O152" s="2" t="s">
@@ -10203,7 +10200,7 @@
       <c r="D153" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="E153" s="20" t="s">
+      <c r="E153" s="7" t="s">
         <v>385</v>
       </c>
       <c r="F153" s="2" t="s">
@@ -10212,7 +10209,7 @@
       <c r="G153" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="H153" s="20" t="s">
+      <c r="H153" s="7" t="s">
         <v>385</v>
       </c>
       <c r="I153" s="2" t="s">
@@ -10221,7 +10218,7 @@
       <c r="J153" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="K153" s="20" t="s">
+      <c r="K153" s="7" t="s">
         <v>385</v>
       </c>
       <c r="L153" s="2" t="s">
@@ -10230,7 +10227,7 @@
       <c r="M153" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="N153" s="20" t="s">
+      <c r="N153" s="7" t="s">
         <v>385</v>
       </c>
       <c r="O153" s="2" t="s">
@@ -10259,7 +10256,7 @@
       <c r="D154" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="E154" s="20" t="s">
+      <c r="E154" s="7" t="s">
         <v>385</v>
       </c>
       <c r="F154" s="2" t="s">
@@ -10268,7 +10265,7 @@
       <c r="G154" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="H154" s="20" t="s">
+      <c r="H154" s="7" t="s">
         <v>385</v>
       </c>
       <c r="I154" s="2" t="s">
@@ -10277,7 +10274,7 @@
       <c r="J154" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="K154" s="20" t="s">
+      <c r="K154" s="7" t="s">
         <v>385</v>
       </c>
       <c r="L154" s="2" t="s">
@@ -10286,7 +10283,7 @@
       <c r="M154" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="N154" s="20" t="s">
+      <c r="N154" s="7" t="s">
         <v>385</v>
       </c>
       <c r="O154" s="2" t="s">
@@ -10315,7 +10312,7 @@
       <c r="D155" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="E155" s="20" t="s">
+      <c r="E155" s="7" t="s">
         <v>385</v>
       </c>
       <c r="F155" s="2" t="s">
@@ -10324,7 +10321,7 @@
       <c r="G155" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="H155" s="20" t="s">
+      <c r="H155" s="7" t="s">
         <v>385</v>
       </c>
       <c r="I155" s="2" t="s">
@@ -10333,7 +10330,7 @@
       <c r="J155" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="K155" s="20" t="s">
+      <c r="K155" s="7" t="s">
         <v>385</v>
       </c>
       <c r="L155" s="2" t="s">
@@ -10342,7 +10339,7 @@
       <c r="M155" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="N155" s="20" t="s">
+      <c r="N155" s="7" t="s">
         <v>385</v>
       </c>
       <c r="O155" s="2" t="s">
@@ -10371,7 +10368,7 @@
       <c r="D156" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="E156" s="20" t="s">
+      <c r="E156" s="7" t="s">
         <v>385</v>
       </c>
       <c r="F156" s="2" t="s">
@@ -10380,7 +10377,7 @@
       <c r="G156" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="H156" s="20" t="s">
+      <c r="H156" s="7" t="s">
         <v>385</v>
       </c>
       <c r="I156" s="2" t="s">
@@ -10389,7 +10386,7 @@
       <c r="J156" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="K156" s="20" t="s">
+      <c r="K156" s="7" t="s">
         <v>385</v>
       </c>
       <c r="L156" s="2" t="s">
@@ -10398,7 +10395,7 @@
       <c r="M156" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="N156" s="20" t="s">
+      <c r="N156" s="7" t="s">
         <v>385</v>
       </c>
       <c r="O156" s="2" t="s">
@@ -10427,7 +10424,7 @@
       <c r="D157" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="E157" s="20" t="s">
+      <c r="E157" s="7" t="s">
         <v>385</v>
       </c>
       <c r="F157" s="2" t="s">
@@ -10436,7 +10433,7 @@
       <c r="G157" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="H157" s="20" t="s">
+      <c r="H157" s="7" t="s">
         <v>385</v>
       </c>
       <c r="I157" s="2" t="s">
@@ -10445,7 +10442,7 @@
       <c r="J157" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="K157" s="20" t="s">
+      <c r="K157" s="7" t="s">
         <v>385</v>
       </c>
       <c r="L157" s="2" t="s">
@@ -10454,7 +10451,7 @@
       <c r="M157" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="N157" s="20" t="s">
+      <c r="N157" s="7" t="s">
         <v>385</v>
       </c>
       <c r="O157" s="2" t="s">
@@ -10483,7 +10480,7 @@
       <c r="D158" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="E158" s="20" t="s">
+      <c r="E158" s="7" t="s">
         <v>385</v>
       </c>
       <c r="F158" s="2" t="s">
@@ -10492,7 +10489,7 @@
       <c r="G158" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="H158" s="20" t="s">
+      <c r="H158" s="7" t="s">
         <v>385</v>
       </c>
       <c r="I158" s="2" t="s">
@@ -10501,7 +10498,7 @@
       <c r="J158" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="K158" s="20" t="s">
+      <c r="K158" s="7" t="s">
         <v>385</v>
       </c>
       <c r="L158" s="2" t="s">
@@ -10510,7 +10507,7 @@
       <c r="M158" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="N158" s="20" t="s">
+      <c r="N158" s="7" t="s">
         <v>385</v>
       </c>
       <c r="O158" s="2" t="s">
@@ -10539,7 +10536,7 @@
       <c r="D159" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="E159" s="20" t="s">
+      <c r="E159" s="7" t="s">
         <v>385</v>
       </c>
       <c r="F159" s="2" t="s">
@@ -10548,7 +10545,7 @@
       <c r="G159" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="H159" s="20" t="s">
+      <c r="H159" s="7" t="s">
         <v>385</v>
       </c>
       <c r="I159" s="2" t="s">
@@ -10557,7 +10554,7 @@
       <c r="J159" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="K159" s="20" t="s">
+      <c r="K159" s="7" t="s">
         <v>385</v>
       </c>
       <c r="L159" s="2" t="s">
@@ -10566,7 +10563,7 @@
       <c r="M159" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="N159" s="20" t="s">
+      <c r="N159" s="7" t="s">
         <v>385</v>
       </c>
       <c r="O159" s="2" t="s">
@@ -10595,7 +10592,7 @@
       <c r="D160" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="E160" s="20" t="s">
+      <c r="E160" s="7" t="s">
         <v>385</v>
       </c>
       <c r="F160" s="2" t="s">
@@ -10604,7 +10601,7 @@
       <c r="G160" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="H160" s="20" t="s">
+      <c r="H160" s="7" t="s">
         <v>385</v>
       </c>
       <c r="I160" s="2" t="s">
@@ -10613,7 +10610,7 @@
       <c r="J160" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="K160" s="20" t="s">
+      <c r="K160" s="7" t="s">
         <v>385</v>
       </c>
       <c r="L160" s="2" t="s">
@@ -10622,7 +10619,7 @@
       <c r="M160" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="N160" s="20" t="s">
+      <c r="N160" s="7" t="s">
         <v>385</v>
       </c>
       <c r="O160" s="2" t="s">
@@ -10651,7 +10648,7 @@
       <c r="D161" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="E161" s="20" t="s">
+      <c r="E161" s="7" t="s">
         <v>385</v>
       </c>
       <c r="F161" s="2" t="s">
@@ -10660,7 +10657,7 @@
       <c r="G161" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="H161" s="20" t="s">
+      <c r="H161" s="7" t="s">
         <v>385</v>
       </c>
       <c r="I161" s="2" t="s">
@@ -10669,7 +10666,7 @@
       <c r="J161" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="K161" s="20" t="s">
+      <c r="K161" s="7" t="s">
         <v>385</v>
       </c>
       <c r="L161" s="2" t="s">
@@ -10678,7 +10675,7 @@
       <c r="M161" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="N161" s="20" t="s">
+      <c r="N161" s="7" t="s">
         <v>385</v>
       </c>
       <c r="O161" s="2" t="s">
@@ -10707,7 +10704,7 @@
       <c r="D162" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="E162" s="20" t="s">
+      <c r="E162" s="7" t="s">
         <v>385</v>
       </c>
       <c r="F162" s="2" t="s">
@@ -10716,7 +10713,7 @@
       <c r="G162" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="H162" s="20" t="s">
+      <c r="H162" s="7" t="s">
         <v>385</v>
       </c>
       <c r="I162" s="2" t="s">
@@ -10725,7 +10722,7 @@
       <c r="J162" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="K162" s="20" t="s">
+      <c r="K162" s="7" t="s">
         <v>385</v>
       </c>
       <c r="L162" s="2" t="s">
@@ -10734,7 +10731,7 @@
       <c r="M162" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="N162" s="20" t="s">
+      <c r="N162" s="7" t="s">
         <v>385</v>
       </c>
       <c r="O162" s="2" t="s">
@@ -10763,7 +10760,7 @@
       <c r="D163" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="E163" s="20" t="s">
+      <c r="E163" s="7" t="s">
         <v>385</v>
       </c>
       <c r="F163" s="2" t="s">
@@ -10772,7 +10769,7 @@
       <c r="G163" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="H163" s="20" t="s">
+      <c r="H163" s="7" t="s">
         <v>385</v>
       </c>
       <c r="I163" s="2" t="s">
@@ -10781,7 +10778,7 @@
       <c r="J163" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="K163" s="20" t="s">
+      <c r="K163" s="7" t="s">
         <v>385</v>
       </c>
       <c r="L163" s="2" t="s">
@@ -10790,7 +10787,7 @@
       <c r="M163" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="N163" s="20" t="s">
+      <c r="N163" s="7" t="s">
         <v>385</v>
       </c>
       <c r="O163" s="2" t="s">
@@ -10819,7 +10816,7 @@
       <c r="D164" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="E164" s="20" t="s">
+      <c r="E164" s="7" t="s">
         <v>385</v>
       </c>
       <c r="F164" s="2" t="s">
@@ -10828,7 +10825,7 @@
       <c r="G164" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="H164" s="20" t="s">
+      <c r="H164" s="7" t="s">
         <v>385</v>
       </c>
       <c r="I164" s="2" t="s">
@@ -10837,7 +10834,7 @@
       <c r="J164" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="K164" s="20" t="s">
+      <c r="K164" s="7" t="s">
         <v>385</v>
       </c>
       <c r="L164" s="2" t="s">
@@ -10846,7 +10843,7 @@
       <c r="M164" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="N164" s="20" t="s">
+      <c r="N164" s="7" t="s">
         <v>385</v>
       </c>
       <c r="O164" s="2" t="s">
@@ -10875,7 +10872,7 @@
       <c r="D165" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="E165" s="20" t="s">
+      <c r="E165" s="7" t="s">
         <v>385</v>
       </c>
       <c r="F165" s="2" t="s">
@@ -10884,7 +10881,7 @@
       <c r="G165" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="H165" s="20" t="s">
+      <c r="H165" s="7" t="s">
         <v>385</v>
       </c>
       <c r="I165" s="2" t="s">
@@ -10893,7 +10890,7 @@
       <c r="J165" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="K165" s="20" t="s">
+      <c r="K165" s="7" t="s">
         <v>385</v>
       </c>
       <c r="L165" s="2" t="s">
@@ -10902,7 +10899,7 @@
       <c r="M165" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="N165" s="20" t="s">
+      <c r="N165" s="7" t="s">
         <v>385</v>
       </c>
       <c r="O165" s="2" t="s">
@@ -10933,20 +10930,11 @@
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
-  <pageSetup scale="71" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="59" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_activity xmlns="3e76bddb-57ca-485e-9708-d0055db85d8c" xsi:nil="true"/>
@@ -10954,7 +10942,7 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009743B49463109F4CB2FB73322DC74A25" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="04a4be667b30de3658685888ed2b4848">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="3e76bddb-57ca-485e-9708-d0055db85d8c" xmlns:ns4="d4bdcabf-f400-43a9-a439-7abad8d4a1ca" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="27d52ce8634cdce9543b611e7abc6b37" ns3:_="" ns4:_="">
     <xsd:import namespace="3e76bddb-57ca-485e-9708-d0055db85d8c"/>
@@ -11169,15 +11157,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1953424A-7027-4B55-8FA2-D90057CF4E16}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD50FF05-6555-4CE6-B947-926858B45F21}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="d4bdcabf-f400-43a9-a439-7abad8d4a1ca"/>
@@ -11194,7 +11183,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4CCC7C1-CD3D-4FDD-9FF2-C689BDD44A08}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11211,4 +11200,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1953424A-7027-4B55-8FA2-D90057CF4E16}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>